--- a/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
@@ -460,12 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Racing Bulls</t>
-  </si>
-  <si>
-    <t>Sauber</t>
-  </si>
-  <si>
     <t>Shanghai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,6 +484,12 @@
 Update Sprint Qualifying on 2021
 Update Sprint Qualifying after 2022</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick Sauber</t>
+  </si>
+  <si>
+    <t>RB</t>
   </si>
 </sst>
 </file>
@@ -1121,13 +1121,13 @@
         <v>74</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>84</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>4</v>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>9</v>
@@ -1514,7 +1514,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>97</v>
@@ -2754,7 +2754,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>97</v>
@@ -3064,7 +3064,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>38</v>
@@ -3994,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>23</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4416,13 +4416,13 @@
         <v>74</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>84</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>4</v>
@@ -4437,7 +4437,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>9</v>
@@ -4788,7 +4788,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>97</v>
@@ -5980,7 +5980,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>97</v>
@@ -6278,7 +6278,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>23</v>
@@ -7172,7 +7172,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>23</v>
@@ -7539,13 +7539,13 @@
         <v>74</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>84</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>4</v>
@@ -7560,7 +7560,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>9</v>
@@ -7911,7 +7911,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>97</v>
@@ -9103,7 +9103,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>97</v>
@@ -9401,7 +9401,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>23</v>
@@ -10295,7 +10295,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>23</v>
@@ -10720,7 +10720,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>97</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>23</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>97</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>23</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>97</v>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
@@ -19,13 +19,13 @@
     <sheet name="Ranking System Notes" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AD$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AD$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1991-2002 Power Unit Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1991-2002 Team Ranking'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AD$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AD$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2003-2009 Power Unit Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2003-2009 Team Ranking'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024 Driver Ranking'!$A$1:$AG$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024 Driver Ranking'!$A$1:$AG$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2024 Power Unit Ranking'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024 Team Ranking'!$A$1:$E$11</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="118">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,29 @@
   <si>
     <t>RB</t>
   </si>
+  <si>
+    <t>Oliver Bearman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>British</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>British</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -699,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -763,6 +786,8 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1089,7 +1114,7 @@
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
@@ -1236,7 +1261,9 @@
       <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -1266,11 +1293,11 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="16">
         <f>SUM(F3:AC3)+SUM(AD2,AE2)</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG2" s="16">
         <f>SUM(F3:AC3)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -1285,7 +1312,7 @@
       </c>
       <c r="G3" s="17">
         <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H3" s="17">
         <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
@@ -1396,7 +1423,9 @@
       <c r="F4" s="37">
         <v>2</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28">
+        <v>2</v>
+      </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -1423,11 +1452,11 @@
       <c r="AE4" s="37"/>
       <c r="AF4" s="37">
         <f>SUM(F5:AC5)+SUM(AD4,AE4)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG4" s="37">
         <f>SUM(F5:AC5)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1442,7 +1471,7 @@
       </c>
       <c r="G5" s="17">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H5" s="17">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
@@ -1535,56 +1564,61 @@
       <c r="AG5" s="17"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="40">
-        <v>55</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="A6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
         <v>3</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18">
         <f>SUM(F7:AC7)+SUM(AD6,AE6)</f>
-        <v>15</v>
-      </c>
-      <c r="AG6" s="40">
+        <v>28</v>
+      </c>
+      <c r="AG6" s="18">
         <f>SUM(F7:AC7)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1595,11 +1629,11 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="17">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7" s="17">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
@@ -1692,56 +1726,58 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="18">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="18">
-        <v>4</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18">
+      <c r="A8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="19">
+        <v>63</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5</v>
+      </c>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19">
         <f>SUM(F9:AC9)+SUM(AD8,AE8)</f>
-        <v>12</v>
-      </c>
-      <c r="AG8" s="18">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="19">
         <f>SUM(F9:AC9)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1752,11 +1788,11 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17">
         <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="17">
         <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="17">
         <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
@@ -1849,56 +1885,58 @@
       <c r="AG9" s="17"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="19">
-        <v>63</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="A10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="20">
         <v>81</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="19">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19">
+      <c r="F10" s="20">
+        <v>8</v>
+      </c>
+      <c r="G10" s="20">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f>SUM(F11:AC11)+SUM(AD10,AE10)</f>
-        <v>10</v>
-      </c>
-      <c r="AG10" s="19">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="20">
         <f>SUM(F11:AC11)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1909,11 +1947,11 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
@@ -2006,56 +2044,56 @@
       <c r="AG11" s="17"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41">
-        <v>4</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="41">
-        <v>6</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41">
+      <c r="A12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="40">
+        <v>55</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="40">
+        <v>3</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40">
         <f>SUM(F13:AC13)+SUM(AD12,AE12)</f>
-        <v>8</v>
-      </c>
-      <c r="AG12" s="41">
+        <v>15</v>
+      </c>
+      <c r="AG12" s="40">
         <f>SUM(F13:AC13)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2066,7 +2104,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
@@ -2163,56 +2201,58 @@
       <c r="AG13" s="17"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="39">
-        <v>44</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="A14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="41">
+        <v>4</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="39">
-        <v>7</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39">
+      <c r="F14" s="41">
+        <v>6</v>
+      </c>
+      <c r="G14" s="41">
+        <v>8</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41">
         <f>SUM(F15:AC15)+SUM(AD14,AE14)</f>
-        <v>6</v>
-      </c>
-      <c r="AG14" s="39">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="41">
         <f>SUM(F15:AC15)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -2223,11 +2263,11 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="17">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="17">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
@@ -2320,56 +2360,58 @@
       <c r="AG15" s="17"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="20">
-        <v>81</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="A16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="27">
+        <v>14</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="20">
-        <v>8</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20">
+      <c r="F16" s="38">
+        <v>9</v>
+      </c>
+      <c r="G16" s="38">
+        <v>5</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38">
         <f>SUM(F17:AC17)+SUM(AD16,AE16)</f>
-        <v>4</v>
-      </c>
-      <c r="AG16" s="20">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="38">
         <f>SUM(F17:AC17)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -2380,11 +2422,11 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17">
         <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="17">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="17">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
@@ -2477,56 +2519,58 @@
       <c r="AG17" s="17"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="27">
-        <v>14</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="38" t="s">
+      <c r="A18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="39">
+        <v>44</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="38">
+      <c r="E18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="39">
+        <v>7</v>
+      </c>
+      <c r="G18" s="39">
         <v>9</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38">
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39">
         <f>SUM(F19:AC19)+SUM(AD18,AE18)</f>
-        <v>2</v>
-      </c>
-      <c r="AG18" s="38">
+        <v>8</v>
+      </c>
+      <c r="AG18" s="39">
         <f>SUM(F19:AC19)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -2537,11 +2581,11 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="17">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="17">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
@@ -2634,56 +2678,56 @@
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="23">
-        <v>18</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="23">
-        <v>10</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23">
+      <c r="A20" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="40">
+        <v>38</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="40">
+        <v>7</v>
+      </c>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40">
         <f>SUM(F21:AC21)+SUM(AD20,AE20)</f>
-        <v>1</v>
-      </c>
-      <c r="AG20" s="23">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="40">
         <f>SUM(F21:AC21)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -2694,11 +2738,11 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="17">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H21" s="17">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
@@ -2791,56 +2835,58 @@
       <c r="AG21" s="17"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="43">
-        <v>2</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="23">
         <v>18</v>
       </c>
-      <c r="F22" s="43">
-        <v>20</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43">
+      <c r="C22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="23">
+        <v>10</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23">
         <f>SUM(F23:AC23)+SUM(AD22,AE22)</f>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="23">
         <f>SUM(F23:AC23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -2851,7 +2897,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="17">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
@@ -2948,56 +2994,58 @@
       <c r="AG23" s="17"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="50">
-        <v>3</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="50">
-        <v>13</v>
-      </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50">
+      <c r="A24" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="42">
+        <v>27</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="42">
+        <v>16</v>
+      </c>
+      <c r="G24" s="42">
+        <v>10</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42">
         <f>SUM(F25:AC25)+SUM(AD24,AE24)</f>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="42">
         <f>SUM(F25:AC25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -3012,7 +3060,7 @@
       </c>
       <c r="G25" s="17">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="17">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
@@ -3105,54 +3153,56 @@
       <c r="AG25" s="17"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="57">
-        <v>10</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="57">
+      <c r="A26" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="43">
+        <v>2</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57">
+      <c r="F26" s="43">
+        <v>20</v>
+      </c>
+      <c r="G26" s="43">
+        <v>14</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43">
         <f>SUM(F27:AC27)+SUM(AD26,AE26)</f>
         <v>0</v>
       </c>
-      <c r="AG26" s="57">
+      <c r="AG26" s="43">
         <f>SUM(F27:AC27)</f>
         <v>0</v>
       </c>
@@ -3262,54 +3312,56 @@
       <c r="AG27" s="17"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="22">
-        <v>20</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="22">
-        <v>12</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22">
+      <c r="A28" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="50">
+        <v>3</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="50">
+        <v>13</v>
+      </c>
+      <c r="G28" s="50">
+        <v>16</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50">
         <f>SUM(F29:AC29)+SUM(AD28,AE28)</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="22">
+      <c r="AG28" s="50">
         <f>SUM(F29:AC29)</f>
         <v>0</v>
       </c>
@@ -3419,54 +3471,56 @@
       <c r="AG29" s="17"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="52">
-        <v>22</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="52">
-        <v>14</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52">
+      <c r="A30" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="57">
+        <v>10</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="57">
+        <v>18</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57">
         <f>SUM(F31:AC31)+SUM(AD30,AE30)</f>
         <v>0</v>
       </c>
-      <c r="AG30" s="52">
+      <c r="AG30" s="57">
         <f>SUM(F31:AC31)</f>
         <v>0</v>
       </c>
@@ -3576,54 +3630,56 @@
       <c r="AG31" s="17"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="24">
-        <v>23</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="24">
-        <v>15</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24">
+      <c r="A32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="22">
+        <v>20</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="22">
+        <v>12</v>
+      </c>
+      <c r="G32" s="22">
+        <v>12</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22">
         <f>SUM(F33:AC33)+SUM(AD32,AE32)</f>
         <v>0</v>
       </c>
-      <c r="AG32" s="24">
+      <c r="AG32" s="22">
         <f>SUM(F33:AC33)</f>
         <v>0</v>
       </c>
@@ -3733,54 +3789,56 @@
       <c r="AG33" s="17"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="46">
-        <v>24</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="46">
-        <v>11</v>
-      </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46">
+      <c r="A34" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="52">
+        <v>22</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="52">
+        <v>14</v>
+      </c>
+      <c r="G34" s="52">
+        <v>15</v>
+      </c>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52">
         <f>SUM(F35:AC35)+SUM(AD34,AE34)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="46">
+      <c r="AG34" s="52">
         <f>SUM(F35:AC35)</f>
         <v>0</v>
       </c>
@@ -3890,54 +3948,56 @@
       <c r="AG35" s="17"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="42">
-        <v>27</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="42">
-        <v>16</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42">
+      <c r="A36" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="24">
+        <v>23</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="24">
+        <v>15</v>
+      </c>
+      <c r="G36" s="24">
+        <v>11</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24">
         <f>SUM(F37:AC37)+SUM(AD36,AE36)</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="42">
+      <c r="AG36" s="24">
         <f>SUM(F37:AC37)</f>
         <v>0</v>
       </c>
@@ -4047,54 +4107,56 @@
       <c r="AG37" s="17"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="59">
-        <v>31</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="59">
-        <v>17</v>
-      </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59">
+      <c r="A38" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="46">
+        <v>24</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="46">
+        <v>11</v>
+      </c>
+      <c r="G38" s="46">
+        <v>18</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46">
         <f>SUM(F39:AC39)+SUM(AD38,AE38)</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="59">
+      <c r="AG38" s="46">
         <f>SUM(F39:AC39)</f>
         <v>0</v>
       </c>
@@ -4204,54 +4266,56 @@
       <c r="AG39" s="17"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="48">
-        <v>77</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="48">
-        <v>19</v>
-      </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48">
+      <c r="A40" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="59">
+        <v>31</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="59">
+        <v>17</v>
+      </c>
+      <c r="G40" s="59">
+        <v>13</v>
+      </c>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59">
         <f>SUM(F41:AC41)+SUM(AD40,AE40)</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="48">
+      <c r="AG40" s="59">
         <f>SUM(F41:AC41)</f>
         <v>0</v>
       </c>
@@ -4263,15 +4327,15 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17">
-        <f t="shared" ref="F41:AC41" si="0">IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
+        <f>IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(G40=1,25,IF(G40=2,18,IF(G40=3,15,IF(G40=4,12,IF(G40=5,10,IF(G40=6,8,IF(G40=7,6,IF(G40=8,4,IF(G40=9,2,IF(G40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(H40=1,25,IF(H40=2,18,IF(H40=3,15,IF(H40=4,12,IF(H40=5,10,IF(H40=6,8,IF(H40=7,6,IF(H40=8,4,IF(H40=9,2,IF(H40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="17">
@@ -4283,44 +4347,44 @@
         <v>0</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(K40=1,25,IF(K40=2,18,IF(K40=3,15,IF(K40=4,12,IF(K40=5,10,IF(K40=6,8,IF(K40=7,6,IF(K40=8,4,IF(K40=9,2,IF(K40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(M40=1,25,IF(M40=2,18,IF(M40=3,15,IF(M40=4,12,IF(M40=5,10,IF(M40=6,8,IF(M40=7,6,IF(M40=8,4,IF(M40=9,2,IF(M40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(N40=1,25,IF(N40=2,18,IF(N40=3,15,IF(N40=4,12,IF(N40=5,10,IF(N40=6,8,IF(N40=7,6,IF(N40=8,4,IF(N40=9,2,IF(N40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(O40=1,25,IF(O40=2,18,IF(O40=3,15,IF(O40=4,12,IF(O40=5,10,IF(O40=6,8,IF(O40=7,6,IF(O40=8,4,IF(O40=9,2,IF(O40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(P40=1,25,IF(P40=2,18,IF(P40=3,15,IF(P40=4,12,IF(P40=5,10,IF(P40=6,8,IF(P40=7,6,IF(P40=8,4,IF(P40=9,2,IF(P40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(Q40=1,25,IF(Q40=2,18,IF(Q40=3,15,IF(Q40=4,12,IF(Q40=5,10,IF(Q40=6,8,IF(Q40=7,6,IF(Q40=8,4,IF(Q40=9,2,IF(Q40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(R40=1,25,IF(R40=2,18,IF(R40=3,15,IF(R40=4,12,IF(R40=5,10,IF(R40=6,8,IF(R40=7,6,IF(R40=8,4,IF(R40=9,2,IF(R40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(S40=1,25,IF(S40=2,18,IF(S40=3,15,IF(S40=4,12,IF(S40=5,10,IF(S40=6,8,IF(S40=7,6,IF(S40=8,4,IF(S40=9,2,IF(S40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(T40=1,25,IF(T40=2,18,IF(T40=3,15,IF(T40=4,12,IF(T40=5,10,IF(T40=6,8,IF(T40=7,6,IF(T40=8,4,IF(T40=9,2,IF(T40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(U40=1,25,IF(U40=2,18,IF(U40=3,15,IF(U40=4,12,IF(U40=5,10,IF(U40=6,8,IF(U40=7,6,IF(U40=8,4,IF(U40=9,2,IF(U40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="17">
@@ -4328,23 +4392,23 @@
         <v>0</v>
       </c>
       <c r="W41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(W40=1,25,IF(W40=2,18,IF(W40=3,15,IF(W40=4,12,IF(W40=5,10,IF(W40=6,8,IF(W40=7,6,IF(W40=8,4,IF(W40=9,2,IF(W40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(X40=1,25,IF(X40=2,18,IF(X40=3,15,IF(X40=4,12,IF(X40=5,10,IF(X40=6,8,IF(X40=7,6,IF(X40=8,4,IF(X40=9,2,IF(X40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(Y40=1,25,IF(Y40=2,18,IF(Y40=3,15,IF(Y40=4,12,IF(Y40=5,10,IF(Y40=6,8,IF(Y40=7,6,IF(Y40=8,4,IF(Y40=9,2,IF(Y40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(Z40=1,25,IF(Z40=2,18,IF(Z40=3,15,IF(Z40=4,12,IF(Z40=5,10,IF(Z40=6,8,IF(Z40=7,6,IF(Z40=8,4,IF(Z40=9,2,IF(Z40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="17">
@@ -4352,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(AC40=1,25,IF(AC40=2,18,IF(AC40=3,15,IF(AC40=4,12,IF(AC40=5,10,IF(AC40=6,8,IF(AC40=7,6,IF(AC40=8,4,IF(AC40=9,2,IF(AC40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AD41" s="17"/>
@@ -4360,10 +4424,169 @@
       <c r="AF41" s="17"/>
       <c r="AG41" s="17"/>
     </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="48">
+        <v>77</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="48">
+        <v>19</v>
+      </c>
+      <c r="G42" s="48">
+        <v>17</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48">
+        <f>SUM(F43:AC43)+SUM(AD42,AE42)</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="48">
+        <f>SUM(F43:AC43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17">
+        <f t="shared" ref="F43" si="0">IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" ref="G43" si="1">IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" ref="H43" si="2">IF(H42=1,25,IF(H42=2,18,IF(H42=3,15,IF(H42=4,12,IF(H42=5,10,IF(H42=6,8,IF(H42=7,6,IF(H42=8,4,IF(H42=9,2,IF(H42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" ref="I43" si="3">IF(I42=1,25,IF(I42=2,18,IF(I42=3,15,IF(I42=4,12,IF(I42=5,10,IF(I42=6,8,IF(I42=7,6,IF(I42=8,4,IF(I42=9,2,IF(I42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" ref="J43" si="4">IF(J42=1,25,IF(J42=2,18,IF(J42=3,15,IF(J42=4,12,IF(J42=5,10,IF(J42=6,8,IF(J42=7,6,IF(J42=8,4,IF(J42=9,2,IF(J42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="17">
+        <f t="shared" ref="K43" si="5">IF(K42=1,25,IF(K42=2,18,IF(K42=3,15,IF(K42=4,12,IF(K42=5,10,IF(K42=6,8,IF(K42=7,6,IF(K42=8,4,IF(K42=9,2,IF(K42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17">
+        <f t="shared" ref="M43" si="6">IF(M42=1,25,IF(M42=2,18,IF(M42=3,15,IF(M42=4,12,IF(M42=5,10,IF(M42=6,8,IF(M42=7,6,IF(M42=8,4,IF(M42=9,2,IF(M42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <f t="shared" ref="N43" si="7">IF(N42=1,25,IF(N42=2,18,IF(N42=3,15,IF(N42=4,12,IF(N42=5,10,IF(N42=6,8,IF(N42=7,6,IF(N42=8,4,IF(N42=9,2,IF(N42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="17">
+        <f t="shared" ref="O43" si="8">IF(O42=1,25,IF(O42=2,18,IF(O42=3,15,IF(O42=4,12,IF(O42=5,10,IF(O42=6,8,IF(O42=7,6,IF(O42=8,4,IF(O42=9,2,IF(O42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
+        <f t="shared" ref="P43" si="9">IF(P42=1,25,IF(P42=2,18,IF(P42=3,15,IF(P42=4,12,IF(P42=5,10,IF(P42=6,8,IF(P42=7,6,IF(P42=8,4,IF(P42=9,2,IF(P42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" ref="Q43" si="10">IF(Q42=1,25,IF(Q42=2,18,IF(Q42=3,15,IF(Q42=4,12,IF(Q42=5,10,IF(Q42=6,8,IF(Q42=7,6,IF(Q42=8,4,IF(Q42=9,2,IF(Q42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="17">
+        <f t="shared" ref="R43" si="11">IF(R42=1,25,IF(R42=2,18,IF(R42=3,15,IF(R42=4,12,IF(R42=5,10,IF(R42=6,8,IF(R42=7,6,IF(R42=8,4,IF(R42=9,2,IF(R42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
+        <f t="shared" ref="S43" si="12">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="17">
+        <f t="shared" ref="T43" si="13">IF(T42=1,25,IF(T42=2,18,IF(T42=3,15,IF(T42=4,12,IF(T42=5,10,IF(T42=6,8,IF(T42=7,6,IF(T42=8,4,IF(T42=9,2,IF(T42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <f t="shared" ref="U43" si="14">IF(U42=1,25,IF(U42=2,18,IF(U42=3,15,IF(U42=4,12,IF(U42=5,10,IF(U42=6,8,IF(U42=7,6,IF(U42=8,4,IF(U42=9,2,IF(U42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <f t="shared" ref="V43" si="15">IF(V42=1,25,IF(V42=2,18,IF(V42=3,15,IF(V42=4,12,IF(V42=5,10,IF(V42=6,8,IF(V42=7,6,IF(V42=8,4,IF(V42=9,2,IF(V42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <f t="shared" ref="W43" si="16">IF(W42=1,25,IF(W42=2,18,IF(W42=3,15,IF(W42=4,12,IF(W42=5,10,IF(W42=6,8,IF(W42=7,6,IF(W42=8,4,IF(W42=9,2,IF(W42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <f t="shared" ref="X43" si="17">IF(X42=1,25,IF(X42=2,18,IF(X42=3,15,IF(X42=4,12,IF(X42=5,10,IF(X42=6,8,IF(X42=7,6,IF(X42=8,4,IF(X42=9,2,IF(X42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="17">
+        <f t="shared" ref="Y43" si="18">IF(Y42=1,25,IF(Y42=2,18,IF(Y42=3,15,IF(Y42=4,12,IF(Y42=5,10,IF(Y42=6,8,IF(Y42=7,6,IF(Y42=8,4,IF(Y42=9,2,IF(Y42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <f t="shared" ref="Z43" si="19">IF(Z42=1,25,IF(Z42=2,18,IF(Z42=3,15,IF(Z42=4,12,IF(Z42=5,10,IF(Z42=6,8,IF(Z42=7,6,IF(Z42=8,4,IF(Z42=9,2,IF(Z42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="17">
+        <f t="shared" ref="AA43" si="20">IF(AA42=1,25,IF(AA42=2,18,IF(AA42=3,15,IF(AA42=4,12,IF(AA42=5,10,IF(AA42=6,8,IF(AA42=7,6,IF(AA42=8,4,IF(AA42=9,2,IF(AA42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17">
+        <f t="shared" ref="AB43" si="21">IF(AB42=1,25,IF(AB42=2,18,IF(AB42=3,15,IF(AB42=4,12,IF(AB42=5,10,IF(AB42=6,8,IF(AB42=7,6,IF(AB42=8,4,IF(AB42=9,2,IF(AB42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="17">
+        <f t="shared" ref="AC43" si="22">IF(AC42=1,25,IF(AC42=2,18,IF(AC42=3,15,IF(AC42=4,12,IF(AC42=5,10,IF(AC42=6,8,IF(AC42=7,6,IF(AC42=8,4,IF(AC42=9,2,IF(AC42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AG41">
-    <sortState ref="A2:AG40">
-      <sortCondition descending="1" ref="AF1:AF41"/>
+  <autoFilter ref="A1:AG43">
+    <sortState ref="A2:AG42">
+      <sortCondition descending="1" ref="AF1:AF43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4417,7 +4640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4565,7 +4788,9 @@
       <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -4590,7 +4815,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16">
         <f>SUM(F3:AA3)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4605,7 +4830,7 @@
       </c>
       <c r="G3" s="17">
         <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="17">
         <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
@@ -4716,7 +4941,9 @@
       <c r="F4" s="37">
         <v>2</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="37">
+        <v>2</v>
+      </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -4741,7 +4968,7 @@
       <c r="AC4" s="37"/>
       <c r="AD4" s="37">
         <f>SUM(F5:AA5)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -4756,7 +4983,7 @@
       </c>
       <c r="G5" s="17">
         <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="17">
         <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
@@ -4849,50 +5076,52 @@
       <c r="AD5" s="17"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="40">
-        <v>55</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="A6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
         <v>3</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18">
         <f>SUM(F7:AA7)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -4903,11 +5132,11 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17">
         <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="17">
         <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="17">
         <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
@@ -5000,50 +5229,52 @@
       <c r="AD7" s="17"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="18">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="18">
-        <v>4</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18">
+      <c r="A8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="19">
+        <v>63</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5</v>
+      </c>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19">
         <f>SUM(F9:AA9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -5054,11 +5285,11 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17">
         <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="17">
         <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="17">
         <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
@@ -5151,50 +5382,50 @@
       <c r="AD9" s="17"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="19">
-        <v>63</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="19">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19">
+      <c r="A10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="40">
+        <v>55</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="40">
+        <v>3</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40">
         <f>SUM(F11:AA11)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -5205,7 +5436,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
@@ -5302,50 +5533,52 @@
       <c r="AD11" s="17"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41">
+      <c r="A12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="20">
+        <v>81</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="20">
+        <v>8</v>
+      </c>
+      <c r="G12" s="36">
         <v>4</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="41">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20">
+        <f>SUM(F13:AA13)</f>
         <v>6</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41">
-        <f>SUM(F13:AA13)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -5356,11 +5589,11 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
@@ -5453,50 +5686,52 @@
       <c r="AD13" s="17"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="39">
-        <v>44</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="A14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="41">
+        <v>4</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="39">
-        <v>7</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39">
+      <c r="F14" s="41">
+        <v>6</v>
+      </c>
+      <c r="G14" s="41">
+        <v>8</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41">
         <f>SUM(F15:AA15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -5507,11 +5742,11 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="17">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="17">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
@@ -5604,50 +5839,52 @@
       <c r="AD15" s="17"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="20">
-        <v>81</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="A16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="27">
+        <v>14</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="20">
-        <v>8</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20">
+      <c r="F16" s="38">
+        <v>9</v>
+      </c>
+      <c r="G16" s="27">
+        <v>5</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38">
         <f>SUM(F17:AA17)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -5658,11 +5895,11 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17">
         <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="17">
         <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="17">
         <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
@@ -5755,50 +5992,52 @@
       <c r="AD17" s="17"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="43">
+      <c r="A18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="39">
+        <v>44</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="39">
+        <v>7</v>
+      </c>
+      <c r="G18" s="39">
+        <v>9</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39">
+        <f>SUM(F19:AA19)</f>
         <v>2</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="43">
-        <v>20</v>
-      </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33">
-        <f>SUM(F19:AA19)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -5809,7 +6048,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17">
         <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="17">
         <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
@@ -5906,50 +6145,50 @@
       <c r="AD19" s="17"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="50">
-        <v>3</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="50">
-        <v>13</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50">
+      <c r="A20" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="40">
+        <v>38</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="40">
+        <v>7</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="40">
         <f>SUM(F21:AA21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -5964,7 +6203,7 @@
       </c>
       <c r="G21" s="17">
         <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="17">
         <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
@@ -6057,48 +6296,50 @@
       <c r="AD21" s="17"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="57">
-        <v>10</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="58">
+      <c r="A22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="43">
+        <v>2</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57">
+      <c r="F22" s="43">
+        <v>20</v>
+      </c>
+      <c r="G22" s="43">
+        <v>14</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33">
         <f>SUM(F23:AA23)</f>
         <v>0</v>
       </c>
@@ -6208,48 +6449,50 @@
       <c r="AD23" s="17"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="27">
-        <v>14</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="38">
-        <v>9</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38">
+      <c r="A24" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="50">
+        <v>3</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="50">
+        <v>13</v>
+      </c>
+      <c r="G24" s="50">
+        <v>16</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50">
         <f>SUM(F25:AA25)</f>
         <v>0</v>
       </c>
@@ -6359,48 +6602,50 @@
       <c r="AD25" s="17"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="A26" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="57">
+        <v>10</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="58">
         <v>18</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="23">
-        <v>10</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23">
+      <c r="G26" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57">
         <f>SUM(F27:AA27)</f>
         <v>0</v>
       </c>
@@ -6510,48 +6755,50 @@
       <c r="AD27" s="17"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="22">
-        <v>20</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="22">
-        <v>12</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22">
+      <c r="A28" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="23">
+        <v>18</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="23">
+        <v>10</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23">
         <f>SUM(F29:AA29)</f>
         <v>0</v>
       </c>
@@ -6661,48 +6908,50 @@
       <c r="AD29" s="17"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="52">
-        <v>22</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="52">
-        <v>14</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52">
+      <c r="A30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="22">
+        <v>20</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="22">
+        <v>12</v>
+      </c>
+      <c r="G30" s="22">
+        <v>12</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22">
         <f>SUM(F31:AA31)</f>
         <v>0</v>
       </c>
@@ -6812,48 +7061,50 @@
       <c r="AD31" s="17"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="24">
-        <v>23</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="24">
+      <c r="A32" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="52">
+        <v>22</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="52">
+        <v>14</v>
+      </c>
+      <c r="G32" s="52">
         <v>15</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24">
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52">
         <f>SUM(F33:AA33)</f>
         <v>0</v>
       </c>
@@ -6963,48 +7214,50 @@
       <c r="AD33" s="17"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="46">
-        <v>24</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="46" t="s">
+      <c r="A34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="24">
         <v>23</v>
       </c>
-      <c r="F34" s="46">
+      <c r="C34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="24">
+        <v>15</v>
+      </c>
+      <c r="G34" s="24">
         <v>11</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47">
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24">
         <f>SUM(F35:AA35)</f>
         <v>0</v>
       </c>
@@ -7114,48 +7367,50 @@
       <c r="AD35" s="17"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="42">
-        <v>27</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="42" t="s">
+      <c r="A36" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="46">
+        <v>24</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="42">
-        <v>16</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42">
+      <c r="F36" s="46">
+        <v>11</v>
+      </c>
+      <c r="G36" s="46">
+        <v>18</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47">
         <f>SUM(F37:AA37)</f>
         <v>0</v>
       </c>
@@ -7265,48 +7520,50 @@
       <c r="AD37" s="17"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="59">
-        <v>31</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="59">
-        <v>17</v>
-      </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59">
+      <c r="A38" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="42">
+        <v>27</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="42">
+        <v>16</v>
+      </c>
+      <c r="G38" s="42">
+        <v>10</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42">
         <f>SUM(F39:AA39)</f>
         <v>0</v>
       </c>
@@ -7416,48 +7673,50 @@
       <c r="AD39" s="17"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="48">
-        <v>77</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="48">
-        <v>19</v>
-      </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48">
+      <c r="A40" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="59">
+        <v>31</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="59">
+        <v>17</v>
+      </c>
+      <c r="G40" s="59">
+        <v>13</v>
+      </c>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59">
         <f>SUM(F41:AA41)</f>
         <v>0</v>
       </c>
@@ -7469,107 +7728,260 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17">
-        <f t="shared" ref="F41:AA41" si="0">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
+        <f>IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(G40=1,10,IF(G40=2,8,IF(G40=3,6,IF(G40=4,5,IF(G40=5,4,IF(G40=6,3,IF(G40=7,2,IF(G40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(H40=1,10,IF(H40=2,8,IF(H40=3,6,IF(H40=4,5,IF(H40=5,4,IF(H40=6,3,IF(H40=7,2,IF(H40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(I40=1,10,IF(I40=2,8,IF(I40=3,6,IF(I40=4,5,IF(I40=5,4,IF(I40=6,3,IF(I40=7,2,IF(I40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(J40=1,10,IF(J40=2,8,IF(J40=3,6,IF(J40=4,5,IF(J40=5,4,IF(J40=6,3,IF(J40=7,2,IF(J40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(K40=1,10,IF(K40=2,8,IF(K40=3,6,IF(K40=4,5,IF(K40=5,4,IF(K40=6,3,IF(K40=7,2,IF(K40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(L40=1,10,IF(L40=2,8,IF(L40=3,6,IF(L40=4,5,IF(L40=5,4,IF(L40=6,3,IF(L40=7,2,IF(L40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(M40=1,10,IF(M40=2,8,IF(M40=3,6,IF(M40=4,5,IF(M40=5,4,IF(M40=6,3,IF(M40=7,2,IF(M40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(N40=1,10,IF(N40=2,8,IF(N40=3,6,IF(N40=4,5,IF(N40=5,4,IF(N40=6,3,IF(N40=7,2,IF(N40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(O40=1,10,IF(O40=2,8,IF(O40=3,6,IF(O40=4,5,IF(O40=5,4,IF(O40=6,3,IF(O40=7,2,IF(O40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(P40=1,10,IF(P40=2,8,IF(P40=3,6,IF(P40=4,5,IF(P40=5,4,IF(P40=6,3,IF(P40=7,2,IF(P40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(Q40=1,10,IF(Q40=2,8,IF(Q40=3,6,IF(Q40=4,5,IF(Q40=5,4,IF(Q40=6,3,IF(Q40=7,2,IF(Q40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(R40=1,10,IF(R40=2,8,IF(R40=3,6,IF(R40=4,5,IF(R40=5,4,IF(R40=6,3,IF(R40=7,2,IF(R40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(S40=1,10,IF(S40=2,8,IF(S40=3,6,IF(S40=4,5,IF(S40=5,4,IF(S40=6,3,IF(S40=7,2,IF(S40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(T40=1,10,IF(T40=2,8,IF(T40=3,6,IF(T40=4,5,IF(T40=5,4,IF(T40=6,3,IF(T40=7,2,IF(T40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(U40=1,10,IF(U40=2,8,IF(U40=3,6,IF(U40=4,5,IF(U40=5,4,IF(U40=6,3,IF(U40=7,2,IF(U40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(V40=1,10,IF(V40=2,8,IF(V40=3,6,IF(V40=4,5,IF(V40=5,4,IF(V40=6,3,IF(V40=7,2,IF(V40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(W40=1,10,IF(W40=2,8,IF(W40=3,6,IF(W40=4,5,IF(W40=5,4,IF(W40=6,3,IF(W40=7,2,IF(W40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(X40=1,10,IF(X40=2,8,IF(X40=3,6,IF(X40=4,5,IF(X40=5,4,IF(X40=6,3,IF(X40=7,2,IF(X40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(Y40=1,10,IF(Y40=2,8,IF(Y40=3,6,IF(Y40=4,5,IF(Y40=5,4,IF(Y40=6,3,IF(Y40=7,2,IF(Y40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(Z40=1,10,IF(Z40=2,8,IF(Z40=3,6,IF(Z40=4,5,IF(Z40=5,4,IF(Z40=6,3,IF(Z40=7,2,IF(Z40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(AA40=1,10,IF(AA40=2,8,IF(AA40=3,6,IF(AA40=4,5,IF(AA40=5,4,IF(AA40=6,3,IF(AA40=7,2,IF(AA40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="17">
-        <f t="shared" ref="AB41" si="1">IF(AB40=1,10,IF(AB40=2,8,IF(AB40=3,6,IF(AB40=4,5,IF(AB40=5,4,IF(AB40=6,3,IF(AB40=7,2,IF(AB40=8,1,0))))))))</f>
+        <f>IF(AB40=1,10,IF(AB40=2,8,IF(AB40=3,6,IF(AB40=4,5,IF(AB40=5,4,IF(AB40=6,3,IF(AB40=7,2,IF(AB40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AC41" s="17">
-        <f t="shared" ref="AC41" si="2">IF(AC40=1,10,IF(AC40=2,8,IF(AC40=3,6,IF(AC40=4,5,IF(AC40=5,4,IF(AC40=6,3,IF(AC40=7,2,IF(AC40=8,1,0))))))))</f>
+        <f>IF(AC40=1,10,IF(AC40=2,8,IF(AC40=3,6,IF(AC40=4,5,IF(AC40=5,4,IF(AC40=6,3,IF(AC40=7,2,IF(AC40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AD41" s="17"/>
     </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="48">
+        <v>77</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="48">
+        <v>19</v>
+      </c>
+      <c r="G42" s="48">
+        <v>17</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17">
+        <f t="shared" ref="F43" si="0">IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" ref="G43" si="1">IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" ref="H43" si="2">IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" ref="I43" si="3">IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" ref="J43" si="4">IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="17">
+        <f t="shared" ref="K43" si="5">IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="17">
+        <f t="shared" ref="L43" si="6">IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" ref="M43" si="7">IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <f t="shared" ref="N43" si="8">IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="17">
+        <f t="shared" ref="O43" si="9">IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
+        <f t="shared" ref="P43" si="10">IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" ref="Q43" si="11">IF(Q42=1,10,IF(Q42=2,8,IF(Q42=3,6,IF(Q42=4,5,IF(Q42=5,4,IF(Q42=6,3,IF(Q42=7,2,IF(Q42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="17">
+        <f t="shared" ref="R43" si="12">IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
+        <f t="shared" ref="S43" si="13">IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="17">
+        <f t="shared" ref="T43" si="14">IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <f t="shared" ref="U43" si="15">IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <f t="shared" ref="V43" si="16">IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <f t="shared" ref="W43" si="17">IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <f t="shared" ref="X43" si="18">IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="17">
+        <f t="shared" ref="Y43" si="19">IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <f t="shared" ref="Z43" si="20">IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="17">
+        <f t="shared" ref="AA43" si="21">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17">
+        <f t="shared" ref="AB43" si="22">IF(AB42=1,10,IF(AB42=2,8,IF(AB42=3,6,IF(AB42=4,5,IF(AB42=5,4,IF(AB42=6,3,IF(AB42=7,2,IF(AB42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="17">
+        <f t="shared" ref="AC43" si="23">IF(AC42=1,10,IF(AC42=2,8,IF(AC42=3,6,IF(AC42=4,5,IF(AC42=5,4,IF(AC42=6,3,IF(AC42=7,2,IF(AC42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AD41">
-    <sortState ref="A2:AD40">
-      <sortCondition descending="1" ref="AD1:AD41"/>
+  <autoFilter ref="A1:AD43">
+    <sortState ref="A2:AD42">
+      <sortCondition descending="1" ref="AD1:AD43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7580,7 +7992,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7728,7 +8140,9 @@
       <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -7753,7 +8167,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16">
         <f>SUM(F3:AA3)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -7768,7 +8182,7 @@
       </c>
       <c r="G3" s="17">
         <f>IF(G2=1,10,IF(G2=2,6,IF(G2=3,4,IF(G2=4,3,IF(G2=5,2,IF(G2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="17">
         <f>IF(H2=1,10,IF(H2=2,6,IF(H2=3,4,IF(H2=4,3,IF(H2=5,2,IF(H2=6,1,0))))))</f>
@@ -7879,7 +8293,9 @@
       <c r="F4" s="37">
         <v>2</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28">
+        <v>2</v>
+      </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -7904,7 +8320,7 @@
       <c r="AC4" s="37"/>
       <c r="AD4" s="37">
         <f>SUM(F5:AA5)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -7919,7 +8335,7 @@
       </c>
       <c r="G5" s="17">
         <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="17">
         <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
@@ -8012,50 +8428,52 @@
       <c r="AD5" s="17"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="40">
-        <v>55</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="A6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
         <v>3</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18">
         <f>SUM(F7:AA7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -8066,11 +8484,11 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17">
         <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="17">
         <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="17">
         <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
@@ -8163,50 +8581,50 @@
       <c r="AD7" s="17"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="18">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="A8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="40">
+        <v>55</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40">
+        <f>SUM(F9:AA9)</f>
         <v>4</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18">
-        <f>SUM(F9:AA9)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -8217,7 +8635,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="17">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
@@ -8332,7 +8750,9 @@
       <c r="F10" s="19">
         <v>5</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="19">
+        <v>6</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -8357,7 +8777,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="19">
         <f>SUM(F11:AA11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -8372,7 +8792,7 @@
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
@@ -8465,50 +8885,52 @@
       <c r="AD11" s="17"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41">
+      <c r="A12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="20">
+        <v>81</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="20">
+        <v>8</v>
+      </c>
+      <c r="G12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="41">
-        <v>6</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -8519,11 +8941,11 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
@@ -8616,50 +9038,52 @@
       <c r="AD13" s="17"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="43">
+      <c r="A14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="27">
+        <v>14</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="38">
+        <v>9</v>
+      </c>
+      <c r="G14" s="27">
+        <v>5</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38">
+        <f>SUM(F15:AA15)</f>
         <v>2</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="43">
-        <v>20</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33">
-        <f>SUM(F15:AA15)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -8674,7 +9098,7 @@
       </c>
       <c r="G15" s="17">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="17">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -8767,50 +9191,52 @@
       <c r="AD15" s="17"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="50">
-        <v>3</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="50">
-        <v>13</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50">
+      <c r="A16" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="41">
+        <v>4</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="41">
+        <v>6</v>
+      </c>
+      <c r="G16" s="41">
+        <v>8</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41">
         <f>SUM(F17:AA17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -8821,7 +9247,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17">
         <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="17">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
@@ -8918,48 +9344,50 @@
       <c r="AD17" s="17"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="57">
-        <v>10</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="58">
+      <c r="A18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="43">
+        <v>2</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57">
+      <c r="F18" s="43">
+        <v>20</v>
+      </c>
+      <c r="G18" s="43">
+        <v>14</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33">
         <f>SUM(F19:AA19)</f>
         <v>0</v>
       </c>
@@ -9069,48 +9497,50 @@
       <c r="AD19" s="17"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="27">
-        <v>14</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="38">
-        <v>9</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38">
+      <c r="A20" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="50">
+        <v>3</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="50">
+        <v>13</v>
+      </c>
+      <c r="G20" s="50">
+        <v>16</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50">
         <f>SUM(F21:AA21)</f>
         <v>0</v>
       </c>
@@ -9220,48 +9650,50 @@
       <c r="AD21" s="17"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="23">
+      <c r="A22" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="57">
+        <v>10</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="58">
         <v>18</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="23">
-        <v>10</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23">
+      <c r="G22" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57">
         <f>SUM(F23:AA23)</f>
         <v>0</v>
       </c>
@@ -9371,48 +9803,50 @@
       <c r="AD23" s="17"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="22">
-        <v>20</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="22">
-        <v>12</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22">
+      <c r="A24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="23">
+        <v>18</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="23">
+        <v>10</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23">
         <f>SUM(F25:AA25)</f>
         <v>0</v>
       </c>
@@ -9522,48 +9956,50 @@
       <c r="AD25" s="17"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="52">
-        <v>22</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="52">
-        <v>14</v>
-      </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52">
+      <c r="A26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="22">
+        <v>20</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="22">
+        <v>12</v>
+      </c>
+      <c r="G26" s="22">
+        <v>12</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22">
         <f>SUM(F27:AA27)</f>
         <v>0</v>
       </c>
@@ -9673,48 +10109,50 @@
       <c r="AD27" s="17"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="24">
-        <v>23</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="24">
+      <c r="A28" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="52">
+        <v>22</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="52">
+        <v>14</v>
+      </c>
+      <c r="G28" s="52">
         <v>15</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24">
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52">
         <f>SUM(F29:AA29)</f>
         <v>0</v>
       </c>
@@ -9824,48 +10262,50 @@
       <c r="AD29" s="17"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="46">
-        <v>24</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="46" t="s">
+      <c r="A30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="24">
         <v>23</v>
       </c>
-      <c r="F30" s="46">
+      <c r="C30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="24">
+        <v>15</v>
+      </c>
+      <c r="G30" s="24">
         <v>11</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47">
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24">
         <f>SUM(F31:AA31)</f>
         <v>0</v>
       </c>
@@ -9975,48 +10415,50 @@
       <c r="AD31" s="17"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="42">
-        <v>27</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="42" t="s">
+      <c r="A32" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="46">
+        <v>24</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="42">
-        <v>16</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42">
+      <c r="F32" s="46">
+        <v>11</v>
+      </c>
+      <c r="G32" s="46">
+        <v>18</v>
+      </c>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47">
         <f>SUM(F33:AA33)</f>
         <v>0</v>
       </c>
@@ -10126,48 +10568,50 @@
       <c r="AD33" s="17"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="59">
-        <v>31</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="59">
-        <v>17</v>
-      </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59">
+      <c r="A34" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="42">
+        <v>27</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="42">
+        <v>16</v>
+      </c>
+      <c r="G34" s="42">
+        <v>10</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42">
         <f>SUM(F35:AA35)</f>
         <v>0</v>
       </c>
@@ -10277,48 +10721,50 @@
       <c r="AD35" s="17"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="39">
-        <v>44</v>
-      </c>
-      <c r="C36" s="39" t="s">
+      <c r="A36" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="59">
+        <v>31</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="59">
         <v>17</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="39">
-        <v>7</v>
-      </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39">
+      <c r="G36" s="59">
+        <v>13</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59">
         <f>SUM(F37:AA37)</f>
         <v>0</v>
       </c>
@@ -10428,48 +10874,50 @@
       <c r="AD37" s="17"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="48">
-        <v>77</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="48">
-        <v>19</v>
-      </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48">
+      <c r="A38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="39">
+        <v>44</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="39">
+        <v>7</v>
+      </c>
+      <c r="G38" s="39">
+        <v>9</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39">
         <f>SUM(F39:AA39)</f>
         <v>0</v>
       </c>
@@ -10579,48 +11027,50 @@
       <c r="AD39" s="17"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="20">
-        <v>81</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="20">
-        <v>8</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20">
+      <c r="A40" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="48">
+        <v>77</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="48">
+        <v>19</v>
+      </c>
+      <c r="G40" s="48">
+        <v>17</v>
+      </c>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48">
         <f>SUM(F41:AA41)</f>
         <v>0</v>
       </c>
@@ -10632,107 +11082,258 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17">
-        <f t="shared" ref="F41" si="0">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
+        <f>IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" ref="G41" si="1">IF(G40=1,10,IF(G40=2,6,IF(G40=3,4,IF(G40=4,3,IF(G40=5,2,IF(G40=6,1,0))))))</f>
+        <f>IF(G40=1,10,IF(G40=2,6,IF(G40=3,4,IF(G40=4,3,IF(G40=5,2,IF(G40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" ref="H41" si="2">IF(H40=1,10,IF(H40=2,6,IF(H40=3,4,IF(H40=4,3,IF(H40=5,2,IF(H40=6,1,0))))))</f>
+        <f>IF(H40=1,10,IF(H40=2,6,IF(H40=3,4,IF(H40=4,3,IF(H40=5,2,IF(H40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="17">
-        <f t="shared" ref="I41" si="3">IF(I40=1,10,IF(I40=2,6,IF(I40=3,4,IF(I40=4,3,IF(I40=5,2,IF(I40=6,1,0))))))</f>
+        <f>IF(I40=1,10,IF(I40=2,6,IF(I40=3,4,IF(I40=4,3,IF(I40=5,2,IF(I40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="17">
-        <f t="shared" ref="J41" si="4">IF(J40=1,10,IF(J40=2,6,IF(J40=3,4,IF(J40=4,3,IF(J40=5,2,IF(J40=6,1,0))))))</f>
+        <f>IF(J40=1,10,IF(J40=2,6,IF(J40=3,4,IF(J40=4,3,IF(J40=5,2,IF(J40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" ref="K41" si="5">IF(K40=1,10,IF(K40=2,6,IF(K40=3,4,IF(K40=4,3,IF(K40=5,2,IF(K40=6,1,0))))))</f>
+        <f>IF(K40=1,10,IF(K40=2,6,IF(K40=3,4,IF(K40=4,3,IF(K40=5,2,IF(K40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" ref="L41" si="6">IF(L40=1,10,IF(L40=2,6,IF(L40=3,4,IF(L40=4,3,IF(L40=5,2,IF(L40=6,1,0))))))</f>
+        <f>IF(L40=1,10,IF(L40=2,6,IF(L40=3,4,IF(L40=4,3,IF(L40=5,2,IF(L40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" ref="M41" si="7">IF(M40=1,10,IF(M40=2,6,IF(M40=3,4,IF(M40=4,3,IF(M40=5,2,IF(M40=6,1,0))))))</f>
+        <f>IF(M40=1,10,IF(M40=2,6,IF(M40=3,4,IF(M40=4,3,IF(M40=5,2,IF(M40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" ref="N41" si="8">IF(N40=1,10,IF(N40=2,6,IF(N40=3,4,IF(N40=4,3,IF(N40=5,2,IF(N40=6,1,0))))))</f>
+        <f>IF(N40=1,10,IF(N40=2,6,IF(N40=3,4,IF(N40=4,3,IF(N40=5,2,IF(N40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" ref="O41" si="9">IF(O40=1,10,IF(O40=2,6,IF(O40=3,4,IF(O40=4,3,IF(O40=5,2,IF(O40=6,1,0))))))</f>
+        <f>IF(O40=1,10,IF(O40=2,6,IF(O40=3,4,IF(O40=4,3,IF(O40=5,2,IF(O40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" ref="P41" si="10">IF(P40=1,10,IF(P40=2,6,IF(P40=3,4,IF(P40=4,3,IF(P40=5,2,IF(P40=6,1,0))))))</f>
+        <f>IF(P40=1,10,IF(P40=2,6,IF(P40=3,4,IF(P40=4,3,IF(P40=5,2,IF(P40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" ref="Q41" si="11">IF(Q40=1,10,IF(Q40=2,6,IF(Q40=3,4,IF(Q40=4,3,IF(Q40=5,2,IF(Q40=6,1,0))))))</f>
+        <f>IF(Q40=1,10,IF(Q40=2,6,IF(Q40=3,4,IF(Q40=4,3,IF(Q40=5,2,IF(Q40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" ref="R41" si="12">IF(R40=1,10,IF(R40=2,6,IF(R40=3,4,IF(R40=4,3,IF(R40=5,2,IF(R40=6,1,0))))))</f>
+        <f>IF(R40=1,10,IF(R40=2,6,IF(R40=3,4,IF(R40=4,3,IF(R40=5,2,IF(R40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" ref="S41" si="13">IF(S40=1,10,IF(S40=2,6,IF(S40=3,4,IF(S40=4,3,IF(S40=5,2,IF(S40=6,1,0))))))</f>
+        <f>IF(S40=1,10,IF(S40=2,6,IF(S40=3,4,IF(S40=4,3,IF(S40=5,2,IF(S40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" ref="T41" si="14">IF(T40=1,10,IF(T40=2,6,IF(T40=3,4,IF(T40=4,3,IF(T40=5,2,IF(T40=6,1,0))))))</f>
+        <f>IF(T40=1,10,IF(T40=2,6,IF(T40=3,4,IF(T40=4,3,IF(T40=5,2,IF(T40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" ref="U41" si="15">IF(U40=1,10,IF(U40=2,6,IF(U40=3,4,IF(U40=4,3,IF(U40=5,2,IF(U40=6,1,0))))))</f>
+        <f>IF(U40=1,10,IF(U40=2,6,IF(U40=3,4,IF(U40=4,3,IF(U40=5,2,IF(U40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="17">
-        <f t="shared" ref="V41" si="16">IF(V40=1,10,IF(V40=2,6,IF(V40=3,4,IF(V40=4,3,IF(V40=5,2,IF(V40=6,1,0))))))</f>
+        <f>IF(V40=1,10,IF(V40=2,6,IF(V40=3,4,IF(V40=4,3,IF(V40=5,2,IF(V40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="17">
-        <f t="shared" ref="W41" si="17">IF(W40=1,10,IF(W40=2,6,IF(W40=3,4,IF(W40=4,3,IF(W40=5,2,IF(W40=6,1,0))))))</f>
+        <f>IF(W40=1,10,IF(W40=2,6,IF(W40=3,4,IF(W40=4,3,IF(W40=5,2,IF(W40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="17">
-        <f t="shared" ref="X41" si="18">IF(X40=1,10,IF(X40=2,6,IF(X40=3,4,IF(X40=4,3,IF(X40=5,2,IF(X40=6,1,0))))))</f>
+        <f>IF(X40=1,10,IF(X40=2,6,IF(X40=3,4,IF(X40=4,3,IF(X40=5,2,IF(X40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="17">
-        <f t="shared" ref="Y41" si="19">IF(Y40=1,10,IF(Y40=2,6,IF(Y40=3,4,IF(Y40=4,3,IF(Y40=5,2,IF(Y40=6,1,0))))))</f>
+        <f>IF(Y40=1,10,IF(Y40=2,6,IF(Y40=3,4,IF(Y40=4,3,IF(Y40=5,2,IF(Y40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="17">
-        <f t="shared" ref="Z41" si="20">IF(Z40=1,10,IF(Z40=2,6,IF(Z40=3,4,IF(Z40=4,3,IF(Z40=5,2,IF(Z40=6,1,0))))))</f>
+        <f>IF(Z40=1,10,IF(Z40=2,6,IF(Z40=3,4,IF(Z40=4,3,IF(Z40=5,2,IF(Z40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="17">
-        <f t="shared" ref="AA41" si="21">IF(AA40=1,10,IF(AA40=2,6,IF(AA40=3,4,IF(AA40=4,3,IF(AA40=5,2,IF(AA40=6,1,0))))))</f>
+        <f>IF(AA40=1,10,IF(AA40=2,6,IF(AA40=3,4,IF(AA40=4,3,IF(AA40=5,2,IF(AA40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="17">
-        <f t="shared" ref="AB41" si="22">IF(AB40=1,10,IF(AB40=2,6,IF(AB40=3,4,IF(AB40=4,3,IF(AB40=5,2,IF(AB40=6,1,0))))))</f>
+        <f>IF(AB40=1,10,IF(AB40=2,6,IF(AB40=3,4,IF(AB40=4,3,IF(AB40=5,2,IF(AB40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AC41" s="17">
-        <f t="shared" ref="AC41" si="23">IF(AC40=1,10,IF(AC40=2,6,IF(AC40=3,4,IF(AC40=4,3,IF(AC40=5,2,IF(AC40=6,1,0))))))</f>
+        <f>IF(AC40=1,10,IF(AC40=2,6,IF(AC40=3,4,IF(AC40=4,3,IF(AC40=5,2,IF(AC40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AD41" s="17"/>
     </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="40">
+        <v>38</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="61"/>
+      <c r="G42" s="40">
+        <v>7</v>
+      </c>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="40">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17">
+        <f t="shared" ref="F43" si="0">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" ref="G43" si="1">IF(G42=1,10,IF(G42=2,6,IF(G42=3,4,IF(G42=4,3,IF(G42=5,2,IF(G42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" ref="H43" si="2">IF(H42=1,10,IF(H42=2,6,IF(H42=3,4,IF(H42=4,3,IF(H42=5,2,IF(H42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" ref="I43" si="3">IF(I42=1,10,IF(I42=2,6,IF(I42=3,4,IF(I42=4,3,IF(I42=5,2,IF(I42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" ref="J43" si="4">IF(J42=1,10,IF(J42=2,6,IF(J42=3,4,IF(J42=4,3,IF(J42=5,2,IF(J42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="17">
+        <f t="shared" ref="K43" si="5">IF(K42=1,10,IF(K42=2,6,IF(K42=3,4,IF(K42=4,3,IF(K42=5,2,IF(K42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="17">
+        <f t="shared" ref="L43" si="6">IF(L42=1,10,IF(L42=2,6,IF(L42=3,4,IF(L42=4,3,IF(L42=5,2,IF(L42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" ref="M43" si="7">IF(M42=1,10,IF(M42=2,6,IF(M42=3,4,IF(M42=4,3,IF(M42=5,2,IF(M42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <f t="shared" ref="N43" si="8">IF(N42=1,10,IF(N42=2,6,IF(N42=3,4,IF(N42=4,3,IF(N42=5,2,IF(N42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="17">
+        <f t="shared" ref="O43" si="9">IF(O42=1,10,IF(O42=2,6,IF(O42=3,4,IF(O42=4,3,IF(O42=5,2,IF(O42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
+        <f t="shared" ref="P43" si="10">IF(P42=1,10,IF(P42=2,6,IF(P42=3,4,IF(P42=4,3,IF(P42=5,2,IF(P42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" ref="Q43" si="11">IF(Q42=1,10,IF(Q42=2,6,IF(Q42=3,4,IF(Q42=4,3,IF(Q42=5,2,IF(Q42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="17">
+        <f t="shared" ref="R43" si="12">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
+        <f t="shared" ref="S43" si="13">IF(S42=1,10,IF(S42=2,6,IF(S42=3,4,IF(S42=4,3,IF(S42=5,2,IF(S42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="17">
+        <f t="shared" ref="T43" si="14">IF(T42=1,10,IF(T42=2,6,IF(T42=3,4,IF(T42=4,3,IF(T42=5,2,IF(T42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <f t="shared" ref="U43" si="15">IF(U42=1,10,IF(U42=2,6,IF(U42=3,4,IF(U42=4,3,IF(U42=5,2,IF(U42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <f t="shared" ref="V43" si="16">IF(V42=1,10,IF(V42=2,6,IF(V42=3,4,IF(V42=4,3,IF(V42=5,2,IF(V42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <f t="shared" ref="W43" si="17">IF(W42=1,10,IF(W42=2,6,IF(W42=3,4,IF(W42=4,3,IF(W42=5,2,IF(W42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <f t="shared" ref="X43" si="18">IF(X42=1,10,IF(X42=2,6,IF(X42=3,4,IF(X42=4,3,IF(X42=5,2,IF(X42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="17">
+        <f t="shared" ref="Y43" si="19">IF(Y42=1,10,IF(Y42=2,6,IF(Y42=3,4,IF(Y42=4,3,IF(Y42=5,2,IF(Y42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <f t="shared" ref="Z43" si="20">IF(Z42=1,10,IF(Z42=2,6,IF(Z42=3,4,IF(Z42=4,3,IF(Z42=5,2,IF(Z42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="17">
+        <f t="shared" ref="AA43" si="21">IF(AA42=1,10,IF(AA42=2,6,IF(AA42=3,4,IF(AA42=4,3,IF(AA42=5,2,IF(AA42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17">
+        <f t="shared" ref="AB43" si="22">IF(AB42=1,10,IF(AB42=2,6,IF(AB42=3,4,IF(AB42=4,3,IF(AB42=5,2,IF(AB42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="17">
+        <f t="shared" ref="AC43" si="23">IF(AC42=1,10,IF(AC42=2,6,IF(AC42=3,4,IF(AC42=4,3,IF(AC42=5,2,IF(AC42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AD41">
-    <sortState ref="A2:AD40">
-      <sortCondition descending="1" ref="AD1:AD41"/>
+  <autoFilter ref="A1:AD43">
+    <sortState ref="A2:AD42">
+      <sortCondition descending="1" ref="AD1:AD43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10786,11 +11387,11 @@
       </c>
       <c r="D2" s="9">
         <f>'2024 Driver Ranking'!AF2+'2024 Driver Ranking'!AF4</f>
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E2" s="9">
         <f>'2024 Driver Ranking'!AG2+'2024 Driver Ranking'!AG4</f>
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10804,50 +11405,50 @@
         <v>62</v>
       </c>
       <c r="D3" s="6">
-        <f>'2024 Driver Ranking'!AF6+'2024 Driver Ranking'!AF8</f>
-        <v>27</v>
+        <f>'2024 Driver Ranking'!AF6+'2024 Driver Ranking'!AF12+'2024 Driver Ranking'!AF20</f>
+        <v>49</v>
       </c>
       <c r="E3" s="6">
-        <f>'2024 Driver Ranking'!AG6+'2024 Driver Ranking'!AG8</f>
-        <v>27</v>
+        <f>'2024 Driver Ranking'!AG6+'2024 Driver Ranking'!AG12+'2024 Driver Ranking'!AG20</f>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'2024 Driver Ranking'!AF10+'2024 Driver Ranking'!AF14</f>
+        <v>28</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'2024 Driver Ranking'!AG10+'2024 Driver Ranking'!AG14</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12">
-        <f>'2024 Driver Ranking'!AF10+'2024 Driver Ranking'!AF14</f>
-        <v>16</v>
-      </c>
-      <c r="E4" s="12">
-        <f>'2024 Driver Ranking'!AG10+'2024 Driver Ranking'!AG14</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'2024 Driver Ranking'!AF12+'2024 Driver Ranking'!AF16</f>
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
-        <f>'2024 Driver Ranking'!AG12+'2024 Driver Ranking'!AG16</f>
-        <v>12</v>
+      <c r="D5" s="12">
+        <f>'2024 Driver Ranking'!AF8+'2024 Driver Ranking'!AF18</f>
+        <v>26</v>
+      </c>
+      <c r="E5" s="12">
+        <f>'2024 Driver Ranking'!AG8+'2024 Driver Ranking'!AG18</f>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10861,113 +11462,113 @@
         <v>68</v>
       </c>
       <c r="D6" s="7">
-        <f>'2024 Driver Ranking'!AF18+'2024 Driver Ranking'!AF20</f>
-        <v>3</v>
+        <f>'2024 Driver Ranking'!AF16+'2024 Driver Ranking'!AF22</f>
+        <v>13</v>
       </c>
       <c r="E6" s="7">
-        <f>'2024 Driver Ranking'!AG18+'2024 Driver Ranking'!AG20</f>
-        <v>3</v>
+        <f>'2024 Driver Ranking'!AG16+'2024 Driver Ranking'!AG22</f>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'2024 Driver Ranking'!AF24+'2024 Driver Ranking'!AF32</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f>'2024 Driver Ranking'!AG24+'2024 Driver Ranking'!AG32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="56">
-        <f>'2024 Driver Ranking'!AF26+'2024 Driver Ranking'!AF38</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="56">
-        <f>'2024 Driver Ranking'!AG26+'2024 Driver Ranking'!AG38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="56">
+        <f>'2024 Driver Ranking'!AF30+'2024 Driver Ranking'!AF40</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="56">
+        <f>'2024 Driver Ranking'!AG30+'2024 Driver Ranking'!AG40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="4">
-        <f>'2024 Driver Ranking'!AF22+'2024 Driver Ranking'!AF32</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f>'2024 Driver Ranking'!AG22+'2024 Driver Ranking'!AG32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="D9" s="4">
+        <f>'2024 Driver Ranking'!AF26+'2024 Driver Ranking'!AF36</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>'2024 Driver Ranking'!AG26+'2024 Driver Ranking'!AG36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B10" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C10" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="55">
-        <f>'2024 Driver Ranking'!AF24+'2024 Driver Ranking'!AF30</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="55">
-        <f>'2024 Driver Ranking'!AG24+'2024 Driver Ranking'!AG30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="D10" s="55">
+        <f>'2024 Driver Ranking'!AF28+'2024 Driver Ranking'!AF34</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="55">
+        <f>'2024 Driver Ranking'!AG28+'2024 Driver Ranking'!AG34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C11" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="49">
-        <f>'2024 Driver Ranking'!AF34+'2024 Driver Ranking'!AF40</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="49">
-        <f>'2024 Driver Ranking'!AG34+'2024 Driver Ranking'!AG40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3">
-        <f>'2024 Driver Ranking'!AF28+'2024 Driver Ranking'!AF36</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <f>'2024 Driver Ranking'!AG28+'2024 Driver Ranking'!AG36</f>
+      <c r="D11" s="49">
+        <f>'2024 Driver Ranking'!AF38+'2024 Driver Ranking'!AF42</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
+        <f>'2024 Driver Ranking'!AG38+'2024 Driver Ranking'!AG42</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E11">
     <sortState ref="A2:E11">
-      <sortCondition descending="1" ref="E1:E11"/>
+      <sortCondition descending="1" ref="D1:D11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11017,7 +11618,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AD2+'2003-2009 Driver Ranking'!AD4</f>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11031,38 +11632,38 @@
         <v>62</v>
       </c>
       <c r="D3" s="6">
-        <f>'2003-2009 Driver Ranking'!AD6+'2003-2009 Driver Ranking'!AD8</f>
-        <v>11</v>
+        <f>'2003-2009 Driver Ranking'!AD6+'2003-2009 Driver Ranking'!AD10+'2003-2009 Driver Ranking'!AD20</f>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'2003-2009 Driver Ranking'!AD12+'2003-2009 Driver Ranking'!AD14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12">
-        <f>'2003-2009 Driver Ranking'!AD10+'2003-2009 Driver Ranking'!AD14</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'2003-2009 Driver Ranking'!AD12+'2003-2009 Driver Ranking'!AD16</f>
-        <v>4</v>
+      <c r="D5" s="12">
+        <f>'2003-2009 Driver Ranking'!AD8+'2003-2009 Driver Ranking'!AD18</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11076,8 +11677,8 @@
         <v>68</v>
       </c>
       <c r="D6" s="7">
-        <f>'2003-2009 Driver Ranking'!AD24+'2003-2009 Driver Ranking'!AD26</f>
-        <v>0</v>
+        <f>'2003-2009 Driver Ranking'!AD16+'2003-2009 Driver Ranking'!AD28</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11091,7 +11692,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="56">
-        <f>'2003-2009 Driver Ranking'!AD22+'2003-2009 Driver Ranking'!AD38</f>
+        <f>'2003-2009 Driver Ranking'!AD26+'2003-2009 Driver Ranking'!AD40</f>
         <v>0</v>
       </c>
     </row>
@@ -11106,7 +11707,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="4">
-        <f>'2003-2009 Driver Ranking'!AD18+'2003-2009 Driver Ranking'!AD32</f>
+        <f>'2003-2009 Driver Ranking'!AD22+'2003-2009 Driver Ranking'!AD34</f>
         <v>0</v>
       </c>
     </row>
@@ -11121,7 +11722,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="55">
-        <f>'2003-2009 Driver Ranking'!AD20+'2003-2009 Driver Ranking'!AD30</f>
+        <f>'2003-2009 Driver Ranking'!AD24+'2003-2009 Driver Ranking'!AD32</f>
         <v>0</v>
       </c>
     </row>
@@ -11136,7 +11737,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="3">
-        <f>'2003-2009 Driver Ranking'!AD28+'2003-2009 Driver Ranking'!AD36</f>
+        <f>'2003-2009 Driver Ranking'!AD30+'2003-2009 Driver Ranking'!AD38</f>
         <v>0</v>
       </c>
     </row>
@@ -11151,7 +11752,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="49">
-        <f>'2003-2009 Driver Ranking'!AD34+'2003-2009 Driver Ranking'!AD40</f>
+        <f>'2003-2009 Driver Ranking'!AD36+'2003-2009 Driver Ranking'!AD42</f>
         <v>0</v>
       </c>
     </row>
@@ -11207,7 +11808,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11221,38 +11822,38 @@
         <v>62</v>
       </c>
       <c r="D3" s="6">
-        <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8</f>
-        <v>7</v>
+        <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD42</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12">
-        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD36</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD40</f>
-        <v>1</v>
+      <c r="D5" s="12">
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD38</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11266,8 +11867,8 @@
         <v>68</v>
       </c>
       <c r="D6" s="7">
-        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD22</f>
-        <v>0</v>
+        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD24</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11281,7 +11882,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="56">
-        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD34</f>
+        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD36</f>
         <v>0</v>
       </c>
     </row>
@@ -11296,7 +11897,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="49">
-        <f>'1991-2002 Driver Ranking'!AD30+'1991-2002 Driver Ranking'!AD38</f>
+        <f>'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD40</f>
         <v>0</v>
       </c>
     </row>
@@ -11311,7 +11912,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="3">
-        <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD32</f>
+        <f>'1991-2002 Driver Ranking'!AD26+'1991-2002 Driver Ranking'!AD34</f>
         <v>0</v>
       </c>
     </row>
@@ -11326,7 +11927,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="55">
-        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD26</f>
+        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD28</f>
         <v>0</v>
       </c>
     </row>
@@ -11341,7 +11942,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="4">
-        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD28</f>
+        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD30</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="122">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,7 @@
   </si>
   <si>
     <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Did not Finish</t>
@@ -512,6 +513,22 @@
   </si>
   <si>
     <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,8 +1131,7 @@
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -1152,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>103</v>
@@ -1264,7 +1280,9 @@
       <c r="G2" s="16">
         <v>1</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -1405,58 +1423,63 @@
       <c r="AG3" s="17"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="37">
-        <v>11</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="A4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="18">
+        <v>16</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3</v>
+      </c>
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18">
+        <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37">
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18">
         <f>SUM(F5:AC5)+SUM(AD4,AE4)</f>
-        <v>36</v>
-      </c>
-      <c r="AG4" s="37">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="18">
         <f>SUM(F5:AC5)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1467,15 +1490,15 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G5" s="17">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" s="17">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I5" s="17">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
@@ -1564,61 +1587,60 @@
       <c r="AG5" s="17"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="18">
-        <v>16</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="18">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18">
-        <v>3</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18">
+      <c r="A6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="37">
+        <v>11</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="37">
+        <v>2</v>
+      </c>
+      <c r="G6" s="28">
+        <v>2</v>
+      </c>
+      <c r="H6" s="37">
+        <v>5</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37">
         <f>SUM(F7:AC7)+SUM(AD6,AE6)</f>
-        <v>28</v>
-      </c>
-      <c r="AG6" s="18">
+        <v>46</v>
+      </c>
+      <c r="AG6" s="37">
         <f>SUM(F7:AC7)</f>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1629,15 +1651,15 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G7" s="17">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" s="17">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="17">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
@@ -1726,58 +1748,58 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="19">
-        <v>63</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="19">
-        <v>5</v>
-      </c>
-      <c r="G8" s="19">
-        <v>6</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19">
+      <c r="A8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="40">
+        <v>55</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="40">
+        <v>1</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40">
         <f>SUM(F9:AC9)+SUM(AD8,AE8)</f>
-        <v>18</v>
-      </c>
-      <c r="AG8" s="19">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="40">
         <f>SUM(F9:AC9)</f>
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1788,15 +1810,15 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17">
         <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9" s="17">
         <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H9" s="17">
         <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9" s="17">
         <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
@@ -1906,7 +1928,9 @@
       <c r="G10" s="20">
         <v>4</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="20">
+        <v>4</v>
+      </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
@@ -1932,11 +1956,11 @@
       <c r="AE10" s="20"/>
       <c r="AF10" s="20">
         <f>SUM(F11:AC11)+SUM(AD10,AE10)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AG10" s="20">
         <f>SUM(F11:AC11)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1955,7 +1979,7 @@
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I11" s="17">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
@@ -2044,56 +2068,60 @@
       <c r="AG11" s="17"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="40">
-        <v>55</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="40">
+      <c r="A12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="41">
+        <v>4</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="41">
+        <v>6</v>
+      </c>
+      <c r="G12" s="41">
+        <v>8</v>
+      </c>
+      <c r="H12" s="41">
         <v>3</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41">
         <f>SUM(F13:AC13)+SUM(AD12,AE12)</f>
-        <v>15</v>
-      </c>
-      <c r="AG12" s="40">
+        <v>27</v>
+      </c>
+      <c r="AG12" s="41">
         <f>SUM(F13:AC13)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2104,15 +2132,15 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I13" s="17">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
@@ -2201,58 +2229,60 @@
       <c r="AG13" s="17"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="41">
-        <v>4</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="A14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="19">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="19">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19">
         <v>6</v>
       </c>
-      <c r="G14" s="41">
-        <v>8</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41">
+      <c r="H14" s="19">
+        <v>17</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19">
         <f>SUM(F15:AC15)+SUM(AD14,AE14)</f>
-        <v>12</v>
-      </c>
-      <c r="AG14" s="41">
+        <v>18</v>
+      </c>
+      <c r="AG14" s="19">
         <f>SUM(F15:AC15)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -2263,11 +2293,11 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="17">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15" s="17">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
@@ -2381,7 +2411,9 @@
       <c r="G16" s="38">
         <v>5</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="38">
+        <v>8</v>
+      </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -2407,11 +2439,11 @@
       <c r="AE16" s="38"/>
       <c r="AF16" s="38">
         <f>SUM(F17:AC17)+SUM(AD16,AE16)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AG16" s="38">
         <f>SUM(F17:AC17)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -2430,7 +2462,7 @@
       </c>
       <c r="H17" s="17">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="17">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
@@ -2519,58 +2551,60 @@
       <c r="AG17" s="17"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="39">
+      <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="39" t="s">
+      <c r="B18" s="23">
         <v>18</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="C18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="39">
-        <v>7</v>
-      </c>
-      <c r="G18" s="39">
+      <c r="F18" s="23">
+        <v>10</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="23">
+        <v>6</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23">
+        <f>SUM(F19:AC19)+SUM(AD18,AE18)</f>
         <v>9</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39">
-        <f>SUM(F19:AC19)+SUM(AD18,AE18)</f>
-        <v>8</v>
-      </c>
-      <c r="AG18" s="39">
+      <c r="AG18" s="23">
         <f>SUM(F19:AC19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -2581,15 +2615,15 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19" s="17">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="17">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="17">
         <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
@@ -2678,56 +2712,60 @@
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="40">
-        <v>38</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="40">
+      <c r="A20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="39">
+        <v>44</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="39">
         <v>7</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40">
+      <c r="G20" s="39">
+        <v>9</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39">
         <f>SUM(F21:AC21)+SUM(AD20,AE20)</f>
-        <v>6</v>
-      </c>
-      <c r="AG20" s="40">
+        <v>8</v>
+      </c>
+      <c r="AG20" s="39">
         <f>SUM(F21:AC21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -2738,11 +2776,11 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G21" s="17">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H21" s="17">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
@@ -2835,58 +2873,56 @@
       <c r="AG21" s="17"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="23">
-        <v>18</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="23">
-        <v>10</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23">
+      <c r="A22" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="40">
+        <v>38</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="40">
+        <v>7</v>
+      </c>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40">
         <f>SUM(F23:AC23)+SUM(AD22,AE22)</f>
-        <v>1</v>
-      </c>
-      <c r="AG22" s="23">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="40">
         <f>SUM(F23:AC23)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -2897,11 +2933,11 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="17">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="17">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
@@ -2994,58 +3030,60 @@
       <c r="AG23" s="17"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="42">
-        <v>27</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="42">
-        <v>16</v>
-      </c>
-      <c r="G24" s="42">
-        <v>10</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42">
+      <c r="A24" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="52">
+        <v>22</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="52">
+        <v>14</v>
+      </c>
+      <c r="G24" s="52">
+        <v>15</v>
+      </c>
+      <c r="H24" s="52">
+        <v>7</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52">
         <f>SUM(F25:AC25)+SUM(AD24,AE24)</f>
-        <v>1</v>
-      </c>
-      <c r="AG24" s="42">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="52">
         <f>SUM(F25:AC25)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -3060,11 +3098,11 @@
       </c>
       <c r="G25" s="17">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="17">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="17">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
@@ -3153,58 +3191,60 @@
       <c r="AG25" s="17"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="43">
-        <v>2</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="43">
-        <v>20</v>
-      </c>
-      <c r="G26" s="43">
-        <v>14</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43">
+      <c r="A26" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="42">
+        <v>27</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="42">
+        <v>16</v>
+      </c>
+      <c r="G26" s="42">
+        <v>10</v>
+      </c>
+      <c r="H26" s="42">
+        <v>9</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42">
         <f>SUM(F27:AC27)+SUM(AD26,AE26)</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="43">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="42">
         <f>SUM(F27:AC27)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -3219,11 +3259,11 @@
       </c>
       <c r="G27" s="17">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="17">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="17">
         <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
@@ -3312,58 +3352,60 @@
       <c r="AG27" s="17"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="50">
-        <v>3</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="50">
-        <v>13</v>
-      </c>
-      <c r="G28" s="50">
-        <v>16</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50">
+      <c r="A28" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="22">
+        <v>20</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="22">
+        <v>12</v>
+      </c>
+      <c r="G28" s="22">
+        <v>12</v>
+      </c>
+      <c r="H28" s="22">
+        <v>10</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22">
         <f>SUM(F29:AC29)+SUM(AD28,AE28)</f>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="22">
         <f>SUM(F29:AC29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -3382,7 +3424,7 @@
       </c>
       <c r="H29" s="17">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="17">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
@@ -3471,56 +3513,58 @@
       <c r="AG29" s="17"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="57">
-        <v>10</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="57">
+      <c r="A30" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="43">
+        <v>2</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57">
+      <c r="F30" s="43">
+        <v>20</v>
+      </c>
+      <c r="G30" s="43">
+        <v>14</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43">
         <f>SUM(F31:AC31)+SUM(AD30,AE30)</f>
         <v>0</v>
       </c>
-      <c r="AG30" s="57">
+      <c r="AG30" s="43">
         <f>SUM(F31:AC31)</f>
         <v>0</v>
       </c>
@@ -3630,56 +3674,58 @@
       <c r="AG31" s="17"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="22">
-        <v>20</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="22">
+      <c r="A32" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="50">
+        <v>3</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="50">
+        <v>13</v>
+      </c>
+      <c r="G32" s="50">
+        <v>16</v>
+      </c>
+      <c r="H32" s="50">
         <v>12</v>
       </c>
-      <c r="G32" s="22">
-        <v>12</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22">
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50">
         <f>SUM(F33:AC33)+SUM(AD32,AE32)</f>
         <v>0</v>
       </c>
-      <c r="AG32" s="22">
+      <c r="AG32" s="50">
         <f>SUM(F33:AC33)</f>
         <v>0</v>
       </c>
@@ -3789,56 +3835,58 @@
       <c r="AG33" s="17"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="52">
-        <v>22</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="52">
-        <v>14</v>
-      </c>
-      <c r="G34" s="52">
-        <v>15</v>
-      </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52">
+      <c r="A34" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="57">
+        <v>10</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="57">
+        <v>18</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="57">
+        <v>13</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57">
         <f>SUM(F35:AC35)+SUM(AD34,AE34)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="52">
+      <c r="AG34" s="57">
         <f>SUM(F35:AC35)</f>
         <v>0</v>
       </c>
@@ -4128,7 +4176,9 @@
       <c r="G38" s="46">
         <v>18</v>
       </c>
-      <c r="H38" s="46"/>
+      <c r="H38" s="46">
+        <v>15</v>
+      </c>
       <c r="I38" s="46"/>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
@@ -4287,7 +4337,9 @@
       <c r="G40" s="59">
         <v>13</v>
       </c>
-      <c r="H40" s="59"/>
+      <c r="H40" s="59">
+        <v>16</v>
+      </c>
       <c r="I40" s="59"/>
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
@@ -4446,7 +4498,9 @@
       <c r="G42" s="48">
         <v>17</v>
       </c>
-      <c r="H42" s="48"/>
+      <c r="H42" s="48">
+        <v>14</v>
+      </c>
       <c r="I42" s="48"/>
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
@@ -4642,7 +4696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4653,7 +4707,7 @@
     <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -4791,7 +4845,9 @@
       <c r="G2" s="16">
         <v>1</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -4944,7 +5000,9 @@
       <c r="G4" s="37">
         <v>2</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="37">
+        <v>5</v>
+      </c>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -4968,7 +5026,7 @@
       <c r="AC4" s="37"/>
       <c r="AD4" s="37">
         <f>SUM(F5:AA5)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -4987,7 +5045,7 @@
       </c>
       <c r="H5" s="17">
         <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="17">
         <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
@@ -5097,7 +5155,9 @@
       <c r="G6" s="18">
         <v>3</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
@@ -5121,7 +5181,7 @@
       <c r="AC6" s="18"/>
       <c r="AD6" s="18">
         <f>SUM(F7:AA7)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -5140,7 +5200,7 @@
       </c>
       <c r="H7" s="17">
         <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="17">
         <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
@@ -5229,52 +5289,52 @@
       <c r="AD7" s="17"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="19">
-        <v>63</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="19">
-        <v>5</v>
-      </c>
-      <c r="G8" s="19">
-        <v>6</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19">
+      <c r="A8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="40">
+        <v>55</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40">
         <f>SUM(F9:AA9)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -5285,15 +5345,15 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17">
         <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" s="17">
         <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="17">
         <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="17">
         <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
@@ -5382,50 +5442,54 @@
       <c r="AD9" s="17"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="40">
-        <v>55</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="40">
-        <v>3</v>
-      </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40">
+      <c r="A10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="20">
+        <v>81</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20">
+        <v>8</v>
+      </c>
+      <c r="G10" s="36">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20">
+        <v>4</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20">
         <f>SUM(F11:AA11)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -5436,15 +5500,15 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="17">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
@@ -5533,52 +5597,54 @@
       <c r="AD11" s="17"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="20">
-        <v>81</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="41">
+        <v>4</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="41">
+        <v>6</v>
+      </c>
+      <c r="G12" s="41">
         <v>8</v>
       </c>
-      <c r="G12" s="36">
-        <v>4</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20">
+      <c r="H12" s="41">
+        <v>3</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41">
         <f>SUM(F13:AA13)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -5589,15 +5655,15 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="17">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
@@ -5686,52 +5752,54 @@
       <c r="AD13" s="17"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="41">
-        <v>4</v>
-      </c>
-      <c r="C14" s="41" t="s">
+      <c r="A14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="19">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="D14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="41">
+      <c r="E14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19">
         <v>6</v>
       </c>
-      <c r="G14" s="41">
-        <v>8</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41">
+      <c r="H14" s="19">
+        <v>17</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19">
         <f>SUM(F15:AA15)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -5742,11 +5810,11 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="17">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="17">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
@@ -5860,7 +5928,9 @@
       <c r="G16" s="27">
         <v>5</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="27">
+        <v>8</v>
+      </c>
       <c r="I16" s="38"/>
       <c r="J16" s="27"/>
       <c r="K16" s="38"/>
@@ -5884,7 +5954,7 @@
       <c r="AC16" s="38"/>
       <c r="AD16" s="38">
         <f>SUM(F17:AA17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -5903,7 +5973,7 @@
       </c>
       <c r="H17" s="17">
         <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="17">
         <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
@@ -5992,52 +6062,54 @@
       <c r="AD17" s="17"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="39">
+      <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="39" t="s">
+      <c r="B18" s="23">
         <v>18</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="C18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="39">
-        <v>7</v>
-      </c>
-      <c r="G18" s="39">
-        <v>9</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39">
+      <c r="F18" s="23">
+        <v>10</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="23">
+        <v>6</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23">
         <f>SUM(F19:AA19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -6048,7 +6120,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17">
         <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="17">
         <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
@@ -6056,7 +6128,7 @@
       </c>
       <c r="H19" s="17">
         <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="17">
         <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
@@ -6145,48 +6217,52 @@
       <c r="AD19" s="17"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="40">
-        <v>38</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="40">
+      <c r="A20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="39">
+        <v>44</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="39">
         <v>7</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="40">
+      <c r="G20" s="39">
+        <v>9</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39">
         <f>SUM(F21:AA21)</f>
         <v>2</v>
       </c>
@@ -6199,11 +6275,11 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17">
         <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="17">
         <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="17">
         <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
@@ -6296,52 +6372,50 @@
       <c r="AD21" s="17"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="43">
+      <c r="A22" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="40">
+        <v>38</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="40">
+        <v>7</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="40">
+        <f>SUM(F23:AA23)</f>
         <v>2</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="43">
-        <v>20</v>
-      </c>
-      <c r="G22" s="43">
-        <v>14</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33">
-        <f>SUM(F23:AA23)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -6356,7 +6430,7 @@
       </c>
       <c r="G23" s="17">
         <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="17">
         <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
@@ -6449,52 +6523,54 @@
       <c r="AD23" s="17"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="50">
-        <v>3</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="50" t="s">
+      <c r="A24" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="52">
+        <v>22</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="50">
-        <v>13</v>
-      </c>
-      <c r="G24" s="50">
-        <v>16</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50">
+      <c r="F24" s="52">
+        <v>14</v>
+      </c>
+      <c r="G24" s="52">
+        <v>15</v>
+      </c>
+      <c r="H24" s="52">
+        <v>7</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52">
         <f>SUM(F25:AA25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -6513,7 +6589,7 @@
       </c>
       <c r="H25" s="17">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="17">
         <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
@@ -6602,50 +6678,52 @@
       <c r="AD25" s="17"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="57">
-        <v>10</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="58">
+      <c r="A26" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="43">
+        <v>2</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57">
+      <c r="F26" s="43">
+        <v>20</v>
+      </c>
+      <c r="G26" s="43">
+        <v>14</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33">
         <f>SUM(F27:AA27)</f>
         <v>0</v>
       </c>
@@ -6755,50 +6833,52 @@
       <c r="AD27" s="17"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="23">
-        <v>18</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="23">
-        <v>10</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23">
+      <c r="A28" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="50">
+        <v>3</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="50">
+        <v>13</v>
+      </c>
+      <c r="G28" s="50">
+        <v>16</v>
+      </c>
+      <c r="H28" s="50">
+        <v>12</v>
+      </c>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50">
         <f>SUM(F29:AA29)</f>
         <v>0</v>
       </c>
@@ -6908,50 +6988,52 @@
       <c r="AD29" s="17"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="22">
-        <v>20</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="22">
-        <v>12</v>
-      </c>
-      <c r="G30" s="22">
-        <v>12</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22">
+      <c r="A30" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="57">
+        <v>10</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="58">
+        <v>18</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="57">
+        <v>13</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57">
         <f>SUM(F31:AA31)</f>
         <v>0</v>
       </c>
@@ -7061,50 +7143,52 @@
       <c r="AD31" s="17"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="52">
-        <v>22</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="52">
-        <v>14</v>
-      </c>
-      <c r="G32" s="52">
-        <v>15</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52">
+      <c r="A32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="22">
+        <v>20</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="22">
+        <v>12</v>
+      </c>
+      <c r="G32" s="22">
+        <v>12</v>
+      </c>
+      <c r="H32" s="22">
+        <v>10</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22">
         <f>SUM(F33:AA33)</f>
         <v>0</v>
       </c>
@@ -7235,7 +7319,9 @@
       <c r="G34" s="24">
         <v>11</v>
       </c>
-      <c r="H34" s="24"/>
+      <c r="H34" s="24">
+        <v>11</v>
+      </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -7388,7 +7474,9 @@
       <c r="G36" s="46">
         <v>18</v>
       </c>
-      <c r="H36" s="46"/>
+      <c r="H36" s="46">
+        <v>15</v>
+      </c>
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
@@ -7541,7 +7629,9 @@
       <c r="G38" s="42">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="42">
+        <v>9</v>
+      </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
@@ -7694,7 +7784,9 @@
       <c r="G40" s="59">
         <v>13</v>
       </c>
-      <c r="H40" s="59"/>
+      <c r="H40" s="59">
+        <v>16</v>
+      </c>
       <c r="I40" s="59"/>
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
@@ -7847,7 +7939,9 @@
       <c r="G42" s="48">
         <v>17</v>
       </c>
-      <c r="H42" s="48"/>
+      <c r="H42" s="48">
+        <v>14</v>
+      </c>
       <c r="I42" s="48"/>
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
@@ -8005,7 +8099,7 @@
     <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
@@ -8143,7 +8237,9 @@
       <c r="G2" s="16">
         <v>1</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -8296,7 +8392,9 @@
       <c r="G4" s="28">
         <v>2</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="37">
+        <v>5</v>
+      </c>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -8320,7 +8418,7 @@
       <c r="AC4" s="37"/>
       <c r="AD4" s="37">
         <f>SUM(F5:AA5)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -8339,7 +8437,7 @@
       </c>
       <c r="H5" s="17">
         <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="17">
         <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
@@ -8428,52 +8526,52 @@
       <c r="AD5" s="17"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="18">
-        <v>16</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="40">
+        <v>55</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="F6" s="40">
         <v>3</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18">
+      <c r="G6" s="61"/>
+      <c r="H6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40">
         <f>SUM(F7:AA7)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -8484,15 +8582,15 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17">
         <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="17">
         <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="17">
         <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="17">
         <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
@@ -8581,50 +8679,54 @@
       <c r="AD7" s="17"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="40">
-        <v>55</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="40" t="s">
+      <c r="A8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="18">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18">
         <v>3</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40">
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18">
         <f>SUM(F9:AA9)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -8635,15 +8737,15 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="17">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="17">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="17">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
@@ -8732,52 +8834,54 @@
       <c r="AD9" s="17"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="19">
-        <v>63</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="A10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="20">
+        <v>81</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="19">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="F10" s="20">
+        <v>8</v>
+      </c>
+      <c r="G10" s="20">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20">
+        <v>4</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20">
+        <f>SUM(F11:AA11)</f>
         <v>6</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19">
-        <f>SUM(F11:AA11)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -8788,15 +8892,15 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="17">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
@@ -8885,52 +8989,54 @@
       <c r="AD11" s="17"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="20">
-        <v>81</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="41">
+        <v>4</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="41">
+        <v>6</v>
+      </c>
+      <c r="G12" s="41">
         <v>8</v>
       </c>
-      <c r="G12" s="20">
-        <v>4</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20">
+      <c r="H12" s="41">
+        <v>3</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41">
         <f>SUM(F13:AA13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -8941,15 +9047,15 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="17">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
@@ -9038,52 +9144,54 @@
       <c r="AD13" s="17"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="27">
-        <v>14</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="38" t="s">
+      <c r="A14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="19">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="38">
-        <v>9</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="E14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19">
         <v>5</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38">
+      <c r="G14" s="19">
+        <v>6</v>
+      </c>
+      <c r="H14" s="19">
+        <v>17</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19">
         <f>SUM(F15:AA15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -9094,11 +9202,11 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17">
         <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="17">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="17">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -9191,52 +9299,54 @@
       <c r="AD15" s="17"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="41">
-        <v>4</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="A16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="27">
+        <v>14</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="41">
-        <v>6</v>
-      </c>
-      <c r="G16" s="41">
+      <c r="F16" s="38">
+        <v>9</v>
+      </c>
+      <c r="G16" s="27">
+        <v>5</v>
+      </c>
+      <c r="H16" s="38">
         <v>8</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38">
         <f>SUM(F17:AA17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -9247,11 +9357,11 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17">
         <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="17">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="17">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
@@ -9344,52 +9454,54 @@
       <c r="AD17" s="17"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="43">
-        <v>2</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="43" t="s">
+      <c r="A18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="23">
         <v>18</v>
       </c>
-      <c r="F18" s="43">
-        <v>20</v>
-      </c>
-      <c r="G18" s="43">
-        <v>14</v>
-      </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33">
+      <c r="C18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="23">
+        <v>10</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="23">
+        <v>6</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23">
         <f>SUM(F19:AA19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -9408,7 +9520,7 @@
       </c>
       <c r="H19" s="17">
         <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="17">
         <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
@@ -9497,50 +9609,52 @@
       <c r="AD19" s="17"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="50">
-        <v>3</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="50">
-        <v>13</v>
-      </c>
-      <c r="G20" s="50">
-        <v>16</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50">
+      <c r="A20" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="43">
+        <v>2</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="43">
+        <v>20</v>
+      </c>
+      <c r="G20" s="43">
+        <v>14</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33">
         <f>SUM(F21:AA21)</f>
         <v>0</v>
       </c>
@@ -9650,50 +9764,52 @@
       <c r="AD21" s="17"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="57">
-        <v>10</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="58">
-        <v>18</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57">
+      <c r="A22" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="50">
+        <v>3</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="50">
+        <v>13</v>
+      </c>
+      <c r="G22" s="50">
+        <v>16</v>
+      </c>
+      <c r="H22" s="50">
+        <v>12</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50">
         <f>SUM(F23:AA23)</f>
         <v>0</v>
       </c>
@@ -9803,50 +9919,52 @@
       <c r="AD23" s="17"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="23">
+      <c r="A24" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="57">
+        <v>10</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="58">
         <v>18</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="23">
-        <v>10</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23">
+      <c r="G24" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="57">
+        <v>13</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57">
         <f>SUM(F25:AA25)</f>
         <v>0</v>
       </c>
@@ -9977,7 +10095,9 @@
       <c r="G26" s="22">
         <v>12</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="22">
+        <v>10</v>
+      </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
@@ -10130,7 +10250,9 @@
       <c r="G28" s="52">
         <v>15</v>
       </c>
-      <c r="H28" s="52"/>
+      <c r="H28" s="52">
+        <v>7</v>
+      </c>
       <c r="I28" s="53"/>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
@@ -10283,7 +10405,9 @@
       <c r="G30" s="24">
         <v>11</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="24">
+        <v>11</v>
+      </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -10436,7 +10560,9 @@
       <c r="G32" s="46">
         <v>18</v>
       </c>
-      <c r="H32" s="46"/>
+      <c r="H32" s="46">
+        <v>15</v>
+      </c>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
@@ -10589,7 +10715,9 @@
       <c r="G34" s="42">
         <v>10</v>
       </c>
-      <c r="H34" s="42"/>
+      <c r="H34" s="42">
+        <v>9</v>
+      </c>
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
       <c r="K34" s="42"/>
@@ -10742,7 +10870,9 @@
       <c r="G36" s="59">
         <v>13</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="59">
+        <v>16</v>
+      </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
@@ -10895,7 +11025,9 @@
       <c r="G38" s="39">
         <v>9</v>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
@@ -11048,7 +11180,9 @@
       <c r="G40" s="48">
         <v>17</v>
       </c>
-      <c r="H40" s="48"/>
+      <c r="H40" s="48">
+        <v>14</v>
+      </c>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
@@ -11386,12 +11520,12 @@
         <v>63</v>
       </c>
       <c r="D2" s="9">
-        <f>'2024 Driver Ranking'!AF2+'2024 Driver Ranking'!AF4</f>
-        <v>87</v>
+        <f>'2024 Driver Ranking'!AF2+'2024 Driver Ranking'!AF6</f>
+        <v>97</v>
       </c>
       <c r="E2" s="9">
-        <f>'2024 Driver Ranking'!AG2+'2024 Driver Ranking'!AG4</f>
-        <v>86</v>
+        <f>'2024 Driver Ranking'!AG2+'2024 Driver Ranking'!AG6</f>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11405,12 +11539,12 @@
         <v>62</v>
       </c>
       <c r="D3" s="6">
-        <f>'2024 Driver Ranking'!AF6+'2024 Driver Ranking'!AF12+'2024 Driver Ranking'!AF20</f>
-        <v>49</v>
+        <f>'2024 Driver Ranking'!AF4+'2024 Driver Ranking'!AF8+'2024 Driver Ranking'!AF22</f>
+        <v>93</v>
       </c>
       <c r="E3" s="6">
-        <f>'2024 Driver Ranking'!AG6+'2024 Driver Ranking'!AG12+'2024 Driver Ranking'!AG20</f>
-        <v>48</v>
+        <f>'2024 Driver Ranking'!AG4+'2024 Driver Ranking'!AG8+'2024 Driver Ranking'!AG22</f>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11424,12 +11558,12 @@
         <v>68</v>
       </c>
       <c r="D4" s="5">
-        <f>'2024 Driver Ranking'!AF10+'2024 Driver Ranking'!AF14</f>
-        <v>28</v>
+        <f>'2024 Driver Ranking'!AF10+'2024 Driver Ranking'!AF12</f>
+        <v>55</v>
       </c>
       <c r="E4" s="5">
-        <f>'2024 Driver Ranking'!AG10+'2024 Driver Ranking'!AG14</f>
-        <v>28</v>
+        <f>'2024 Driver Ranking'!AG10+'2024 Driver Ranking'!AG12</f>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11443,11 +11577,11 @@
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f>'2024 Driver Ranking'!AF8+'2024 Driver Ranking'!AF18</f>
+        <f>'2024 Driver Ranking'!AF14+'2024 Driver Ranking'!AF20</f>
         <v>26</v>
       </c>
       <c r="E5" s="12">
-        <f>'2024 Driver Ranking'!AG8+'2024 Driver Ranking'!AG18</f>
+        <f>'2024 Driver Ranking'!AG14+'2024 Driver Ranking'!AG20</f>
         <v>26</v>
       </c>
     </row>
@@ -11462,87 +11596,87 @@
         <v>68</v>
       </c>
       <c r="D6" s="7">
-        <f>'2024 Driver Ranking'!AF16+'2024 Driver Ranking'!AF22</f>
-        <v>13</v>
+        <f>'2024 Driver Ranking'!AF16+'2024 Driver Ranking'!AF18</f>
+        <v>25</v>
       </c>
       <c r="E6" s="7">
-        <f>'2024 Driver Ranking'!AG16+'2024 Driver Ranking'!AG22</f>
-        <v>13</v>
+        <f>'2024 Driver Ranking'!AG16+'2024 Driver Ranking'!AG18</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="55">
+        <f>'2024 Driver Ranking'!AF24+'2024 Driver Ranking'!AF32</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="55">
+        <f>'2024 Driver Ranking'!AG24+'2024 Driver Ranking'!AG32</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="3">
-        <f>'2024 Driver Ranking'!AF24+'2024 Driver Ranking'!AF32</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <f>'2024 Driver Ranking'!AG24+'2024 Driver Ranking'!AG32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="D8" s="3">
+        <f>'2024 Driver Ranking'!AF26+'2024 Driver Ranking'!AF28</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'2024 Driver Ranking'!AG26+'2024 Driver Ranking'!AG28</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C9" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="56">
-        <f>'2024 Driver Ranking'!AF30+'2024 Driver Ranking'!AF40</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="56">
-        <f>'2024 Driver Ranking'!AG30+'2024 Driver Ranking'!AG40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D9" s="56">
+        <f>'2024 Driver Ranking'!AF34+'2024 Driver Ranking'!AF40</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="56">
+        <f>'2024 Driver Ranking'!AG34+'2024 Driver Ranking'!AG40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="4">
-        <f>'2024 Driver Ranking'!AF26+'2024 Driver Ranking'!AF36</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>'2024 Driver Ranking'!AG26+'2024 Driver Ranking'!AG36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="55">
-        <f>'2024 Driver Ranking'!AF28+'2024 Driver Ranking'!AF34</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="55">
-        <f>'2024 Driver Ranking'!AG28+'2024 Driver Ranking'!AG34</f>
+      <c r="D10" s="4">
+        <f>'2024 Driver Ranking'!AF30+'2024 Driver Ranking'!AF36</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>'2024 Driver Ranking'!AG30+'2024 Driver Ranking'!AG36</f>
         <v>0</v>
       </c>
     </row>
@@ -11618,7 +11752,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AD2+'2003-2009 Driver Ranking'!AD4</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11632,8 +11766,8 @@
         <v>62</v>
       </c>
       <c r="D3" s="6">
-        <f>'2003-2009 Driver Ranking'!AD6+'2003-2009 Driver Ranking'!AD10+'2003-2009 Driver Ranking'!AD20</f>
-        <v>19</v>
+        <f>'2003-2009 Driver Ranking'!AD6+'2003-2009 Driver Ranking'!AD8+'2003-2009 Driver Ranking'!AD22</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11647,8 +11781,8 @@
         <v>68</v>
       </c>
       <c r="D4" s="5">
-        <f>'2003-2009 Driver Ranking'!AD12+'2003-2009 Driver Ranking'!AD14</f>
-        <v>10</v>
+        <f>'2003-2009 Driver Ranking'!AD10+'2003-2009 Driver Ranking'!AD12</f>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11662,7 +11796,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f>'2003-2009 Driver Ranking'!AD8+'2003-2009 Driver Ranking'!AD18</f>
+        <f>'2003-2009 Driver Ranking'!AD14+'2003-2009 Driver Ranking'!AD20</f>
         <v>9</v>
       </c>
     </row>
@@ -11677,52 +11811,52 @@
         <v>68</v>
       </c>
       <c r="D6" s="7">
-        <f>'2003-2009 Driver Ranking'!AD16+'2003-2009 Driver Ranking'!AD28</f>
-        <v>4</v>
+        <f>'2003-2009 Driver Ranking'!AD16+'2003-2009 Driver Ranking'!AD18</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="55">
+        <f>'2003-2009 Driver Ranking'!AD24+'2003-2009 Driver Ranking'!AD28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="56">
-        <f>'2003-2009 Driver Ranking'!AD26+'2003-2009 Driver Ranking'!AD40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="56">
+        <f>'2003-2009 Driver Ranking'!AD30+'2003-2009 Driver Ranking'!AD40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="4">
-        <f>'2003-2009 Driver Ranking'!AD22+'2003-2009 Driver Ranking'!AD34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="55">
-        <f>'2003-2009 Driver Ranking'!AD24+'2003-2009 Driver Ranking'!AD32</f>
+      <c r="D9" s="4">
+        <f>'2003-2009 Driver Ranking'!AD26+'2003-2009 Driver Ranking'!AD34</f>
         <v>0</v>
       </c>
     </row>
@@ -11737,7 +11871,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="3">
-        <f>'2003-2009 Driver Ranking'!AD30+'2003-2009 Driver Ranking'!AD38</f>
+        <f>'2003-2009 Driver Ranking'!AD32+'2003-2009 Driver Ranking'!AD38</f>
         <v>0</v>
       </c>
     </row>
@@ -11808,7 +11942,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11823,7 +11957,7 @@
       </c>
       <c r="D3" s="6">
         <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD42</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11837,8 +11971,8 @@
         <v>68</v>
       </c>
       <c r="D4" s="5">
-        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
-        <v>4</v>
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11852,7 +11986,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD38</f>
+        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD38</f>
         <v>3</v>
       </c>
     </row>
@@ -11867,8 +12001,8 @@
         <v>68</v>
       </c>
       <c r="D6" s="7">
-        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD24</f>
-        <v>2</v>
+        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD18</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11882,7 +12016,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="56">
-        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD36</f>
+        <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD36</f>
         <v>0</v>
       </c>
     </row>
@@ -11927,7 +12061,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="55">
-        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD28</f>
+        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD28</f>
         <v>0</v>
       </c>
     </row>
@@ -11942,7 +12076,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="4">
-        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD30</f>
+        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD30</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2024.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="124">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,14 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Did not Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,6 +521,22 @@
   </si>
   <si>
     <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,8 +1139,7 @@
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.25" style="1" bestFit="1" customWidth="1"/>
@@ -1168,7 +1175,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>103</v>
@@ -1281,9 +1288,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
@@ -1305,17 +1314,17 @@
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="16">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16">
         <f>SUM(F3:AC3)+SUM(AD2,AE2)</f>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AG2" s="16">
         <f>SUM(F3:AC3)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -1338,7 +1347,7 @@
       </c>
       <c r="I3" s="17">
         <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J3" s="17">
         <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
@@ -1423,63 +1432,62 @@
       <c r="AG3" s="17"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="18">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="18">
-        <v>4</v>
-      </c>
-      <c r="G4" s="18">
-        <v>3</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="A4" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="37">
+        <v>11</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="37">
         <v>2</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18">
-        <f>1+1</f>
+      <c r="G4" s="28">
         <v>2</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18">
+      <c r="H4" s="37">
+        <v>5</v>
+      </c>
+      <c r="I4" s="37">
+        <v>2</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37">
         <f>SUM(F5:AC5)+SUM(AD4,AE4)</f>
-        <v>47</v>
-      </c>
-      <c r="AG4" s="18">
+        <v>64</v>
+      </c>
+      <c r="AG4" s="37">
         <f>SUM(F5:AC5)</f>
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1490,19 +1498,19 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="17">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" s="17">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I5" s="17">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J5" s="17">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
@@ -1587,60 +1595,65 @@
       <c r="AG5" s="17"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="37">
-        <v>11</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="A6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18">
         <v>2</v>
       </c>
-      <c r="G6" s="28">
+      <c r="I6" s="18">
+        <v>4</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18">
+        <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H6" s="37">
-        <v>5</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37">
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18">
         <f>SUM(F7:AC7)+SUM(AD6,AE6)</f>
-        <v>46</v>
-      </c>
-      <c r="AG6" s="37">
+        <v>59</v>
+      </c>
+      <c r="AG6" s="18">
         <f>SUM(F7:AC7)</f>
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1651,19 +1664,19 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G7" s="17">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" s="17">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I7" s="17">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J7" s="17">
         <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
@@ -1770,7 +1783,9 @@
       <c r="H8" s="40">
         <v>1</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="40">
+        <v>3</v>
+      </c>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
@@ -1795,11 +1810,11 @@
       <c r="AE8" s="40"/>
       <c r="AF8" s="40">
         <f>SUM(F9:AC9)+SUM(AD8,AE8)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="40">
         <f>SUM(F9:AC9)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1822,7 +1837,7 @@
       </c>
       <c r="I9" s="17">
         <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9" s="17">
         <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
@@ -1907,60 +1922,62 @@
       <c r="AG9" s="17"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="20">
-        <v>81</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="41">
+        <v>4</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="41">
+        <v>6</v>
+      </c>
+      <c r="G10" s="41">
         <v>8</v>
       </c>
-      <c r="G10" s="20">
-        <v>4</v>
-      </c>
-      <c r="H10" s="20">
-        <v>4</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20">
+      <c r="H10" s="41">
+        <v>3</v>
+      </c>
+      <c r="I10" s="41">
+        <v>5</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41">
         <f>SUM(F11:AC11)+SUM(AD10,AE10)</f>
-        <v>28</v>
-      </c>
-      <c r="AG10" s="20">
+        <v>37</v>
+      </c>
+      <c r="AG10" s="41">
         <f>SUM(F11:AC11)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1971,19 +1988,19 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" s="17">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="17">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
@@ -2068,60 +2085,62 @@
       <c r="AG11" s="17"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41">
+      <c r="A12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="20">
+        <v>81</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="20">
+        <v>8</v>
+      </c>
+      <c r="G12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="41">
-        <v>6</v>
-      </c>
-      <c r="G12" s="41">
+      <c r="H12" s="20">
+        <v>4</v>
+      </c>
+      <c r="I12" s="20">
         <v>8</v>
       </c>
-      <c r="H12" s="41">
-        <v>3</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41">
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <f>SUM(F13:AC13)+SUM(AD12,AE12)</f>
-        <v>27</v>
-      </c>
-      <c r="AG12" s="41">
+        <v>32</v>
+      </c>
+      <c r="AG12" s="20">
         <f>SUM(F13:AC13)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2132,19 +2151,19 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" s="17">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="17">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
@@ -2253,7 +2272,9 @@
       <c r="H14" s="19">
         <v>17</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -2278,11 +2299,11 @@
       <c r="AE14" s="19"/>
       <c r="AF14" s="19">
         <f>SUM(F15:AC15)+SUM(AD14,AE14)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AG14" s="19">
         <f>SUM(F15:AC15)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -2305,7 +2326,7 @@
       </c>
       <c r="I15" s="17">
         <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15" s="17">
         <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
@@ -2414,7 +2435,9 @@
       <c r="H16" s="38">
         <v>8</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="38">
+        <v>6</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
@@ -2439,11 +2462,11 @@
       <c r="AE16" s="38"/>
       <c r="AF16" s="38">
         <f>SUM(F17:AC17)+SUM(AD16,AE16)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG16" s="38">
         <f>SUM(F17:AC17)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -2466,7 +2489,7 @@
       </c>
       <c r="I17" s="17">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J17" s="17">
         <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
@@ -2551,60 +2574,62 @@
       <c r="AG17" s="17"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="39">
         <v>44</v>
       </c>
-      <c r="B18" s="23">
+      <c r="C18" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="39">
+        <v>7</v>
+      </c>
+      <c r="G18" s="39">
+        <v>9</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="39">
+        <v>9</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39">
+        <f>SUM(F19:AC19)+SUM(AD18,AE18)</f>
         <v>10</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="23">
-        <v>6</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23">
-        <f>SUM(F19:AC19)+SUM(AD18,AE18)</f>
-        <v>9</v>
-      </c>
-      <c r="AG18" s="23">
+      <c r="AG18" s="39">
         <f>SUM(F19:AC19)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -2615,19 +2640,19 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="17">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="17">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I19" s="17">
         <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="17">
         <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
@@ -2712,60 +2737,62 @@
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="39">
+      <c r="A20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="23">
         <v>18</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="C20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="39">
-        <v>7</v>
-      </c>
-      <c r="G20" s="39">
+      <c r="F20" s="23">
+        <v>10</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="23">
+        <v>6</v>
+      </c>
+      <c r="I20" s="23">
+        <v>12</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23">
+        <f>SUM(F21:AC21)+SUM(AD20,AE20)</f>
         <v>9</v>
       </c>
-      <c r="H20" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39">
-        <f>SUM(F21:AC21)+SUM(AD20,AE20)</f>
-        <v>8</v>
-      </c>
-      <c r="AG20" s="39">
+      <c r="AG20" s="23">
         <f>SUM(F21:AC21)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -2776,15 +2803,15 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21" s="17">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="17">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I21" s="17">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
@@ -2873,56 +2900,62 @@
       <c r="AG21" s="17"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="40">
-        <v>38</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="40">
+      <c r="A22" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="52">
+        <v>22</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="52">
+        <v>14</v>
+      </c>
+      <c r="G22" s="52">
+        <v>15</v>
+      </c>
+      <c r="H22" s="52">
         <v>7</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40">
+      <c r="I22" s="52">
+        <v>10</v>
+      </c>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52">
         <f>SUM(F23:AC23)+SUM(AD22,AE22)</f>
-        <v>6</v>
-      </c>
-      <c r="AG22" s="40">
+        <v>7</v>
+      </c>
+      <c r="AG22" s="52">
         <f>SUM(F23:AC23)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -2937,15 +2970,15 @@
       </c>
       <c r="G23" s="17">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23" s="17">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="17">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="17">
         <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
@@ -3030,58 +3063,54 @@
       <c r="AG23" s="17"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="52">
-        <v>22</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="52">
-        <v>14</v>
-      </c>
-      <c r="G24" s="52">
-        <v>15</v>
-      </c>
-      <c r="H24" s="52">
+      <c r="A24" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="40">
+        <v>38</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="40">
         <v>7</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52">
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40">
         <f>SUM(F25:AC25)+SUM(AD24,AE24)</f>
         <v>6</v>
       </c>
-      <c r="AG24" s="52">
+      <c r="AG24" s="40">
         <f>SUM(F25:AC25)</f>
         <v>6</v>
       </c>
@@ -3098,11 +3127,11 @@
       </c>
       <c r="G25" s="17">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H25" s="17">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25" s="17">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
@@ -3215,7 +3244,9 @@
       <c r="H26" s="42">
         <v>9</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="42">
+        <v>11</v>
+      </c>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
@@ -3376,7 +3407,9 @@
       <c r="H28" s="22">
         <v>10</v>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="22">
+        <v>13</v>
+      </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -3535,9 +3568,11 @@
         <v>14</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="43"/>
+        <v>117</v>
+      </c>
+      <c r="I30" s="43">
+        <v>17</v>
+      </c>
       <c r="J30" s="43"/>
       <c r="K30" s="43"/>
       <c r="L30" s="43"/>
@@ -3698,7 +3733,9 @@
       <c r="H32" s="50">
         <v>12</v>
       </c>
-      <c r="I32" s="50"/>
+      <c r="I32" s="50" t="s">
+        <v>121</v>
+      </c>
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
       <c r="L32" s="50"/>
@@ -3854,12 +3891,14 @@
         <v>18</v>
       </c>
       <c r="G34" s="57" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H34" s="57">
         <v>13</v>
       </c>
-      <c r="I34" s="57"/>
+      <c r="I34" s="57">
+        <v>16</v>
+      </c>
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
@@ -4018,7 +4057,9 @@
         <v>11</v>
       </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -4179,7 +4220,9 @@
       <c r="H38" s="46">
         <v>15</v>
       </c>
-      <c r="I38" s="46"/>
+      <c r="I38" s="46" t="s">
+        <v>121</v>
+      </c>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
       <c r="L38" s="46"/>
@@ -4340,7 +4383,9 @@
       <c r="H40" s="59">
         <v>16</v>
       </c>
-      <c r="I40" s="59"/>
+      <c r="I40" s="59">
+        <v>15</v>
+      </c>
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
       <c r="L40" s="59"/>
@@ -4501,7 +4546,9 @@
       <c r="H42" s="48">
         <v>14</v>
       </c>
-      <c r="I42" s="48"/>
+      <c r="I42" s="48">
+        <v>14</v>
+      </c>
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
@@ -4707,8 +4754,7 @@
     <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.25" style="1" bestFit="1" customWidth="1"/>
@@ -4846,9 +4892,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="16"/>
+        <v>116</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
@@ -4871,7 +4919,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16">
         <f>SUM(F3:AA3)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4894,7 +4942,7 @@
       </c>
       <c r="I3" s="17">
         <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="17">
         <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
@@ -5003,7 +5051,9 @@
       <c r="H4" s="37">
         <v>5</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="37">
+        <v>2</v>
+      </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
@@ -5026,7 +5076,7 @@
       <c r="AC4" s="37"/>
       <c r="AD4" s="37">
         <f>SUM(F5:AA5)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -5049,7 +5099,7 @@
       </c>
       <c r="I5" s="17">
         <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="17">
         <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
@@ -5158,7 +5208,9 @@
       <c r="H6" s="18">
         <v>2</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>4</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="44"/>
@@ -5181,7 +5233,7 @@
       <c r="AC6" s="18"/>
       <c r="AD6" s="18">
         <f>SUM(F7:AA7)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -5204,7 +5256,7 @@
       </c>
       <c r="I7" s="17">
         <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="17">
         <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
@@ -5311,7 +5363,9 @@
       <c r="H8" s="29">
         <v>1</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="29">
+        <v>3</v>
+      </c>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
       <c r="L8" s="29"/>
@@ -5334,7 +5388,7 @@
       <c r="AC8" s="40"/>
       <c r="AD8" s="40">
         <f>SUM(F9:AA9)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -5357,7 +5411,7 @@
       </c>
       <c r="I9" s="17">
         <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="17">
         <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
@@ -5442,54 +5496,56 @@
       <c r="AD9" s="17"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="20">
-        <v>81</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="41">
+        <v>4</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="41">
+        <v>6</v>
+      </c>
+      <c r="G10" s="41">
         <v>8</v>
       </c>
-      <c r="G10" s="36">
-        <v>4</v>
-      </c>
-      <c r="H10" s="20">
-        <v>4</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20">
+      <c r="H10" s="41">
+        <v>3</v>
+      </c>
+      <c r="I10" s="41">
+        <v>5</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41">
         <f>SUM(F11:AA11)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -5500,19 +5556,19 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="17">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="17">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
@@ -5597,54 +5653,56 @@
       <c r="AD11" s="17"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41">
+      <c r="A12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="20">
+        <v>81</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="20">
+        <v>8</v>
+      </c>
+      <c r="G12" s="36">
         <v>4</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="41">
-        <v>6</v>
-      </c>
-      <c r="G12" s="41">
+      <c r="H12" s="20">
+        <v>4</v>
+      </c>
+      <c r="I12" s="20">
         <v>8</v>
       </c>
-      <c r="H12" s="41">
-        <v>3</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41">
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -5655,19 +5713,19 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="17">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="17">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
@@ -5776,7 +5834,9 @@
       <c r="H14" s="19">
         <v>17</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -5799,7 +5859,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="19">
         <f>SUM(F15:AA15)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -5822,7 +5882,7 @@
       </c>
       <c r="I15" s="17">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="17">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
@@ -5931,7 +5991,9 @@
       <c r="H16" s="27">
         <v>8</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="38">
+        <v>6</v>
+      </c>
       <c r="J16" s="27"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
@@ -5954,7 +6016,7 @@
       <c r="AC16" s="38"/>
       <c r="AD16" s="38">
         <f>SUM(F17:AA17)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -5977,7 +6039,7 @@
       </c>
       <c r="I17" s="17">
         <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="17">
         <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
@@ -6081,12 +6143,14 @@
         <v>10</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="23">
         <v>6</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="23">
+        <v>12</v>
+      </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -6239,9 +6303,11 @@
         <v>9</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="39"/>
+        <v>116</v>
+      </c>
+      <c r="I20" s="39">
+        <v>9</v>
+      </c>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -6547,7 +6613,9 @@
       <c r="H24" s="52">
         <v>7</v>
       </c>
-      <c r="I24" s="53"/>
+      <c r="I24" s="53">
+        <v>10</v>
+      </c>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
@@ -6700,9 +6768,11 @@
         <v>14</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="43"/>
+        <v>117</v>
+      </c>
+      <c r="I26" s="43">
+        <v>17</v>
+      </c>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
@@ -6857,7 +6927,9 @@
       <c r="H28" s="50">
         <v>12</v>
       </c>
-      <c r="I28" s="50"/>
+      <c r="I28" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="50"/>
@@ -7007,12 +7079,14 @@
         <v>18</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H30" s="57">
         <v>13</v>
       </c>
-      <c r="I30" s="57"/>
+      <c r="I30" s="57">
+        <v>16</v>
+      </c>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -7167,7 +7241,9 @@
       <c r="H32" s="22">
         <v>10</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="22">
+        <v>13</v>
+      </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -7322,7 +7398,9 @@
       <c r="H34" s="24">
         <v>11</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -7477,7 +7555,9 @@
       <c r="H36" s="46">
         <v>15</v>
       </c>
-      <c r="I36" s="46"/>
+      <c r="I36" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
       <c r="L36" s="46"/>
@@ -7632,7 +7712,9 @@
       <c r="H38" s="42">
         <v>9</v>
       </c>
-      <c r="I38" s="42"/>
+      <c r="I38" s="42">
+        <v>11</v>
+      </c>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
@@ -7787,7 +7869,9 @@
       <c r="H40" s="59">
         <v>16</v>
       </c>
-      <c r="I40" s="59"/>
+      <c r="I40" s="59">
+        <v>15</v>
+      </c>
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
       <c r="L40" s="59"/>
@@ -7942,7 +8026,9 @@
       <c r="H42" s="48">
         <v>14</v>
       </c>
-      <c r="I42" s="48"/>
+      <c r="I42" s="48">
+        <v>14</v>
+      </c>
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
@@ -8099,8 +8185,7 @@
     <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.25" style="1" bestFit="1" customWidth="1"/>
@@ -8238,9 +8323,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
@@ -8263,7 +8350,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16">
         <f>SUM(F3:AA3)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -8286,7 +8373,7 @@
       </c>
       <c r="I3" s="17">
         <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="17">
         <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
@@ -8395,7 +8482,9 @@
       <c r="H4" s="37">
         <v>5</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="37">
+        <v>2</v>
+      </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
@@ -8418,7 +8507,7 @@
       <c r="AC4" s="37"/>
       <c r="AD4" s="37">
         <f>SUM(F5:AA5)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -8441,7 +8530,7 @@
       </c>
       <c r="I5" s="17">
         <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="17">
         <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
@@ -8548,7 +8637,9 @@
       <c r="H6" s="40">
         <v>1</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="40">
+        <v>3</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
@@ -8571,7 +8662,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40">
         <f>SUM(F7:AA7)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -8594,7 +8685,7 @@
       </c>
       <c r="I7" s="17">
         <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="17">
         <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
@@ -8703,7 +8794,9 @@
       <c r="H8" s="18">
         <v>2</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>4</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -8726,7 +8819,7 @@
       <c r="AC8" s="18"/>
       <c r="AD8" s="18">
         <f>SUM(F9:AA9)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -8749,7 +8842,7 @@
       </c>
       <c r="I9" s="17">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="17">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
@@ -8834,54 +8927,56 @@
       <c r="AD9" s="17"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="20">
-        <v>81</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="41">
+        <v>4</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="41">
+        <v>6</v>
+      </c>
+      <c r="G10" s="41">
         <v>8</v>
       </c>
-      <c r="G10" s="20">
-        <v>4</v>
-      </c>
-      <c r="H10" s="20">
-        <v>4</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20">
+      <c r="H10" s="41">
+        <v>3</v>
+      </c>
+      <c r="I10" s="41">
+        <v>5</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41">
         <f>SUM(F11:AA11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -8892,19 +8987,19 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="17">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="17">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="17">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="17">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
@@ -8989,54 +9084,56 @@
       <c r="AD11" s="17"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="41">
+      <c r="A12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="20">
+        <v>81</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="20">
+        <v>8</v>
+      </c>
+      <c r="G12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="41">
+      <c r="H12" s="20">
+        <v>4</v>
+      </c>
+      <c r="I12" s="20">
+        <v>8</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20">
+        <f>SUM(F13:AA13)</f>
         <v>6</v>
-      </c>
-      <c r="G12" s="41">
-        <v>8</v>
-      </c>
-      <c r="H12" s="41">
-        <v>3</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41">
-        <f>SUM(F13:AA13)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -9047,15 +9144,15 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="17">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="17">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="17">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
@@ -9168,7 +9265,9 @@
       <c r="H14" s="19">
         <v>17</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -9323,7 +9422,9 @@
       <c r="H16" s="38">
         <v>8</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="38">
+        <v>6</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
@@ -9346,7 +9447,7 @@
       <c r="AC16" s="38"/>
       <c r="AD16" s="38">
         <f>SUM(F17:AA17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -9369,7 +9470,7 @@
       </c>
       <c r="I17" s="17">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="17">
         <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
@@ -9478,7 +9579,9 @@
       <c r="H18" s="23">
         <v>6</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="23">
+        <v>12</v>
+      </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -9631,9 +9734,11 @@
         <v>14</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="43"/>
+        <v>117</v>
+      </c>
+      <c r="I20" s="43">
+        <v>17</v>
+      </c>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
@@ -9788,7 +9893,9 @@
       <c r="H22" s="50">
         <v>12</v>
       </c>
-      <c r="I22" s="50"/>
+      <c r="I22" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
@@ -9938,12 +10045,14 @@
         <v>18</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H24" s="57">
         <v>13</v>
       </c>
-      <c r="I24" s="57"/>
+      <c r="I24" s="57">
+        <v>16</v>
+      </c>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
@@ -10098,7 +10207,9 @@
       <c r="H26" s="22">
         <v>10</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="22">
+        <v>13</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -10253,7 +10364,9 @@
       <c r="H28" s="52">
         <v>7</v>
       </c>
-      <c r="I28" s="53"/>
+      <c r="I28" s="53">
+        <v>10</v>
+      </c>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
@@ -10408,7 +10521,9 @@
       <c r="H30" s="24">
         <v>11</v>
       </c>
-      <c r="I30" s="24"/>
+      <c r="I30" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -10563,7 +10678,9 @@
       <c r="H32" s="46">
         <v>15</v>
       </c>
-      <c r="I32" s="46"/>
+      <c r="I32" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
       <c r="L32" s="46"/>
@@ -10718,7 +10835,9 @@
       <c r="H34" s="42">
         <v>9</v>
       </c>
-      <c r="I34" s="42"/>
+      <c r="I34" s="42">
+        <v>11</v>
+      </c>
       <c r="J34" s="42"/>
       <c r="K34" s="42"/>
       <c r="L34" s="42"/>
@@ -10873,7 +10992,9 @@
       <c r="H36" s="59">
         <v>16</v>
       </c>
-      <c r="I36" s="59"/>
+      <c r="I36" s="59">
+        <v>15</v>
+      </c>
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
@@ -11026,9 +11147,11 @@
         <v>9</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="39"/>
+        <v>115</v>
+      </c>
+      <c r="I38" s="39">
+        <v>9</v>
+      </c>
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
@@ -11183,7 +11306,9 @@
       <c r="H40" s="48">
         <v>14</v>
       </c>
-      <c r="I40" s="48"/>
+      <c r="I40" s="48">
+        <v>14</v>
+      </c>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
@@ -11520,12 +11645,12 @@
         <v>63</v>
       </c>
       <c r="D2" s="9">
-        <f>'2024 Driver Ranking'!AF2+'2024 Driver Ranking'!AF6</f>
-        <v>97</v>
+        <f>'2024 Driver Ranking'!AF2+'2024 Driver Ranking'!AF4</f>
+        <v>141</v>
       </c>
       <c r="E2" s="9">
-        <f>'2024 Driver Ranking'!AG2+'2024 Driver Ranking'!AG6</f>
-        <v>96</v>
+        <f>'2024 Driver Ranking'!AG2+'2024 Driver Ranking'!AG4</f>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11539,12 +11664,12 @@
         <v>62</v>
       </c>
       <c r="D3" s="6">
-        <f>'2024 Driver Ranking'!AF4+'2024 Driver Ranking'!AF8+'2024 Driver Ranking'!AF22</f>
-        <v>93</v>
+        <f>'2024 Driver Ranking'!AF6+'2024 Driver Ranking'!AF8+'2024 Driver Ranking'!AF24</f>
+        <v>120</v>
       </c>
       <c r="E3" s="6">
-        <f>'2024 Driver Ranking'!AG4+'2024 Driver Ranking'!AG8+'2024 Driver Ranking'!AG22</f>
-        <v>91</v>
+        <f>'2024 Driver Ranking'!AG6+'2024 Driver Ranking'!AG8+'2024 Driver Ranking'!AG24</f>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11559,11 +11684,11 @@
       </c>
       <c r="D4" s="5">
         <f>'2024 Driver Ranking'!AF10+'2024 Driver Ranking'!AF12</f>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5">
         <f>'2024 Driver Ranking'!AG10+'2024 Driver Ranking'!AG12</f>
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11577,12 +11702,12 @@
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f>'2024 Driver Ranking'!AF14+'2024 Driver Ranking'!AF20</f>
-        <v>26</v>
+        <f>'2024 Driver Ranking'!AF14+'2024 Driver Ranking'!AF18</f>
+        <v>34</v>
       </c>
       <c r="E5" s="12">
-        <f>'2024 Driver Ranking'!AG14+'2024 Driver Ranking'!AG20</f>
-        <v>26</v>
+        <f>'2024 Driver Ranking'!AG14+'2024 Driver Ranking'!AG18</f>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11596,12 +11721,12 @@
         <v>68</v>
       </c>
       <c r="D6" s="7">
-        <f>'2024 Driver Ranking'!AF16+'2024 Driver Ranking'!AF18</f>
-        <v>25</v>
+        <f>'2024 Driver Ranking'!AF16+'2024 Driver Ranking'!AF20</f>
+        <v>33</v>
       </c>
       <c r="E6" s="7">
-        <f>'2024 Driver Ranking'!AG16+'2024 Driver Ranking'!AG18</f>
-        <v>25</v>
+        <f>'2024 Driver Ranking'!AG16+'2024 Driver Ranking'!AG20</f>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11615,12 +11740,12 @@
         <v>61</v>
       </c>
       <c r="D7" s="55">
-        <f>'2024 Driver Ranking'!AF24+'2024 Driver Ranking'!AF32</f>
-        <v>6</v>
+        <f>'2024 Driver Ranking'!AF22+'2024 Driver Ranking'!AF32</f>
+        <v>7</v>
       </c>
       <c r="E7" s="55">
-        <f>'2024 Driver Ranking'!AG24+'2024 Driver Ranking'!AG32</f>
-        <v>6</v>
+        <f>'2024 Driver Ranking'!AG22+'2024 Driver Ranking'!AG32</f>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11752,7 +11877,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AD2+'2003-2009 Driver Ranking'!AD4</f>
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11767,7 +11892,7 @@
       </c>
       <c r="D3" s="6">
         <f>'2003-2009 Driver Ranking'!AD6+'2003-2009 Driver Ranking'!AD8+'2003-2009 Driver Ranking'!AD22</f>
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11782,7 +11907,7 @@
       </c>
       <c r="D4" s="5">
         <f>'2003-2009 Driver Ranking'!AD10+'2003-2009 Driver Ranking'!AD12</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11797,7 +11922,7 @@
       </c>
       <c r="D5" s="12">
         <f>'2003-2009 Driver Ranking'!AD14+'2003-2009 Driver Ranking'!AD20</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11812,7 +11937,7 @@
       </c>
       <c r="D6" s="7">
         <f>'2003-2009 Driver Ranking'!AD16+'2003-2009 Driver Ranking'!AD18</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11942,7 +12067,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11957,7 +12082,7 @@
       </c>
       <c r="D3" s="6">
         <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD42</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11972,36 +12097,36 @@
       </c>
       <c r="D4" s="5">
         <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="7">
+        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD18</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D6" s="12">
         <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD38</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="7">
-        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD18</f>
         <v>3</v>
       </c>
     </row>
